--- a/BACKLOG-V1.xlsx
+++ b/BACKLOG-V1.xlsx
@@ -3,8 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Página2" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Página3" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Backlog" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>BACKLOG</t>
   </si>
@@ -180,55 +179,13 @@
   </si>
   <si>
     <t>CRIAÇÃO DE DASHBOARDS COM AS INFORMAÇÕES DOS SENSORES</t>
-  </si>
-  <si>
-    <t>LUMINOSIDADE</t>
-  </si>
-  <si>
-    <t>ETILENO</t>
-  </si>
-  <si>
-    <t>DIMINUIÇÃO DE TEMPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIM </t>
-  </si>
-  <si>
-    <t>NAO</t>
-  </si>
-  <si>
-    <t>QUANTIDADE TOTAL DE ORQUIDEAS = AREA ESTUFA / 0.15</t>
-  </si>
-  <si>
-    <t>5 ANOS</t>
-  </si>
-  <si>
-    <t>VALOR POR ORQUIDEA 21,80</t>
-  </si>
-  <si>
-    <t>POR COLHETA &gt; 5 ANOS</t>
-  </si>
-  <si>
-    <t>1825 DIAS</t>
-  </si>
-  <si>
-    <t>POR COLHETA &gt; 3 ANOS</t>
-  </si>
-  <si>
-    <t>1132 DIAS</t>
-  </si>
-  <si>
-    <t>UTILIZANDO CONTROLE DE GÁS E ETILENO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -272,18 +229,7 @@
       <name val="Comfortaa"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Comfortaa"/>
-    </font>
-    <font>
       <color rgb="FFEEEEF0"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -314,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border/>
     <border>
       <left style="medium">
@@ -360,25 +306,11 @@
         <color rgb="FF672485"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -413,25 +345,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,10 +359,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -972,10 +885,10 @@
       <c r="B23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -986,10 +899,10 @@
       <c r="B24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1000,10 +913,10 @@
       <c r="B25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1014,3053 +927,2944 @@
       <c r="B26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="15"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28">
-      <c r="D28" s="15"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29">
-      <c r="D29" s="15"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30">
-      <c r="D30" s="15"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31">
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32">
-      <c r="D32" s="15"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33">
-      <c r="D33" s="15"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34">
-      <c r="D34" s="15"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35">
-      <c r="D35" s="15"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36">
-      <c r="D36" s="15"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37">
-      <c r="D37" s="15"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38">
-      <c r="D38" s="15"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39">
-      <c r="D39" s="15"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40">
-      <c r="D40" s="15"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41">
-      <c r="D41" s="15"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42">
-      <c r="D42" s="15"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43">
-      <c r="D43" s="15"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44">
-      <c r="D44" s="15"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45">
-      <c r="D45" s="15"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46">
-      <c r="D46" s="15"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47">
-      <c r="D47" s="15"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48">
-      <c r="D48" s="15"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49">
-      <c r="D49" s="15"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50">
-      <c r="D50" s="15"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51">
-      <c r="D51" s="15"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52">
-      <c r="D52" s="15"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53">
-      <c r="D53" s="15"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54">
-      <c r="D54" s="15"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55">
-      <c r="D55" s="15"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56">
-      <c r="D56" s="15"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57">
-      <c r="D57" s="15"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58">
-      <c r="D58" s="15"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59">
-      <c r="D59" s="15"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60">
-      <c r="D60" s="15"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61">
-      <c r="D61" s="15"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62">
-      <c r="D62" s="15"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63">
-      <c r="D63" s="15"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64">
-      <c r="D64" s="15"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65">
-      <c r="D65" s="15"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66">
-      <c r="D66" s="15"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67">
-      <c r="D67" s="15"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68">
-      <c r="D68" s="15"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69">
-      <c r="D69" s="15"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70">
-      <c r="D70" s="15"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71">
-      <c r="D71" s="15"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72">
-      <c r="D72" s="15"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73">
-      <c r="D73" s="15"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74">
-      <c r="D74" s="15"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75">
-      <c r="D75" s="15"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76">
-      <c r="D76" s="15"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77">
-      <c r="D77" s="15"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78">
-      <c r="D78" s="15"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79">
-      <c r="D79" s="15"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80">
-      <c r="D80" s="15"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81">
-      <c r="D81" s="15"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82">
-      <c r="D82" s="15"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83">
-      <c r="D83" s="15"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84">
-      <c r="D84" s="15"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85">
-      <c r="D85" s="15"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86">
-      <c r="D86" s="15"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87">
-      <c r="D87" s="15"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88">
-      <c r="D88" s="15"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89">
-      <c r="D89" s="15"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90">
-      <c r="D90" s="15"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91">
-      <c r="D91" s="15"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92">
-      <c r="D92" s="15"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93">
-      <c r="D93" s="15"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94">
-      <c r="D94" s="15"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95">
-      <c r="D95" s="15"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96">
-      <c r="D96" s="15"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97">
-      <c r="D97" s="15"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98">
-      <c r="D98" s="15"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99">
-      <c r="D99" s="15"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100">
-      <c r="D100" s="15"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101">
-      <c r="D101" s="15"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102">
-      <c r="D102" s="15"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103">
-      <c r="D103" s="15"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104">
-      <c r="D104" s="15"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105">
-      <c r="D105" s="15"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106">
-      <c r="D106" s="15"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107">
-      <c r="D107" s="15"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108">
-      <c r="D108" s="15"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109">
-      <c r="D109" s="15"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110">
-      <c r="D110" s="15"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111">
-      <c r="D111" s="15"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112">
-      <c r="D112" s="15"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113">
-      <c r="D113" s="15"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114">
-      <c r="D114" s="15"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115">
-      <c r="D115" s="15"/>
+      <c r="D115" s="14"/>
     </row>
     <row r="116">
-      <c r="D116" s="15"/>
+      <c r="D116" s="14"/>
     </row>
     <row r="117">
-      <c r="D117" s="15"/>
+      <c r="D117" s="14"/>
     </row>
     <row r="118">
-      <c r="D118" s="15"/>
+      <c r="D118" s="14"/>
     </row>
     <row r="119">
-      <c r="D119" s="15"/>
+      <c r="D119" s="14"/>
     </row>
     <row r="120">
-      <c r="D120" s="15"/>
+      <c r="D120" s="14"/>
     </row>
     <row r="121">
-      <c r="D121" s="15"/>
+      <c r="D121" s="14"/>
     </row>
     <row r="122">
-      <c r="D122" s="15"/>
+      <c r="D122" s="14"/>
     </row>
     <row r="123">
-      <c r="D123" s="15"/>
+      <c r="D123" s="14"/>
     </row>
     <row r="124">
-      <c r="D124" s="15"/>
+      <c r="D124" s="14"/>
     </row>
     <row r="125">
-      <c r="D125" s="15"/>
+      <c r="D125" s="14"/>
     </row>
     <row r="126">
-      <c r="D126" s="15"/>
+      <c r="D126" s="14"/>
     </row>
     <row r="127">
-      <c r="D127" s="15"/>
+      <c r="D127" s="14"/>
     </row>
     <row r="128">
-      <c r="D128" s="15"/>
+      <c r="D128" s="14"/>
     </row>
     <row r="129">
-      <c r="D129" s="15"/>
+      <c r="D129" s="14"/>
     </row>
     <row r="130">
-      <c r="D130" s="15"/>
+      <c r="D130" s="14"/>
     </row>
     <row r="131">
-      <c r="D131" s="15"/>
+      <c r="D131" s="14"/>
     </row>
     <row r="132">
-      <c r="D132" s="15"/>
+      <c r="D132" s="14"/>
     </row>
     <row r="133">
-      <c r="D133" s="15"/>
+      <c r="D133" s="14"/>
     </row>
     <row r="134">
-      <c r="D134" s="15"/>
+      <c r="D134" s="14"/>
     </row>
     <row r="135">
-      <c r="D135" s="15"/>
+      <c r="D135" s="14"/>
     </row>
     <row r="136">
-      <c r="D136" s="15"/>
+      <c r="D136" s="14"/>
     </row>
     <row r="137">
-      <c r="D137" s="15"/>
+      <c r="D137" s="14"/>
     </row>
     <row r="138">
-      <c r="D138" s="15"/>
+      <c r="D138" s="14"/>
     </row>
     <row r="139">
-      <c r="D139" s="15"/>
+      <c r="D139" s="14"/>
     </row>
     <row r="140">
-      <c r="D140" s="15"/>
+      <c r="D140" s="14"/>
     </row>
     <row r="141">
-      <c r="D141" s="15"/>
+      <c r="D141" s="14"/>
     </row>
     <row r="142">
-      <c r="D142" s="15"/>
+      <c r="D142" s="14"/>
     </row>
     <row r="143">
-      <c r="D143" s="15"/>
+      <c r="D143" s="14"/>
     </row>
     <row r="144">
-      <c r="D144" s="15"/>
+      <c r="D144" s="14"/>
     </row>
     <row r="145">
-      <c r="D145" s="15"/>
+      <c r="D145" s="14"/>
     </row>
     <row r="146">
-      <c r="D146" s="15"/>
+      <c r="D146" s="14"/>
     </row>
     <row r="147">
-      <c r="D147" s="15"/>
+      <c r="D147" s="14"/>
     </row>
     <row r="148">
-      <c r="D148" s="15"/>
+      <c r="D148" s="14"/>
     </row>
     <row r="149">
-      <c r="D149" s="15"/>
+      <c r="D149" s="14"/>
     </row>
     <row r="150">
-      <c r="D150" s="15"/>
+      <c r="D150" s="14"/>
     </row>
     <row r="151">
-      <c r="D151" s="15"/>
+      <c r="D151" s="14"/>
     </row>
     <row r="152">
-      <c r="D152" s="15"/>
+      <c r="D152" s="14"/>
     </row>
     <row r="153">
-      <c r="D153" s="15"/>
+      <c r="D153" s="14"/>
     </row>
     <row r="154">
-      <c r="D154" s="15"/>
+      <c r="D154" s="14"/>
     </row>
     <row r="155">
-      <c r="D155" s="15"/>
+      <c r="D155" s="14"/>
     </row>
     <row r="156">
-      <c r="D156" s="15"/>
+      <c r="D156" s="14"/>
     </row>
     <row r="157">
-      <c r="D157" s="15"/>
+      <c r="D157" s="14"/>
     </row>
     <row r="158">
-      <c r="D158" s="15"/>
+      <c r="D158" s="14"/>
     </row>
     <row r="159">
-      <c r="D159" s="15"/>
+      <c r="D159" s="14"/>
     </row>
     <row r="160">
-      <c r="D160" s="15"/>
+      <c r="D160" s="14"/>
     </row>
     <row r="161">
-      <c r="D161" s="15"/>
+      <c r="D161" s="14"/>
     </row>
     <row r="162">
-      <c r="D162" s="15"/>
+      <c r="D162" s="14"/>
     </row>
     <row r="163">
-      <c r="D163" s="15"/>
+      <c r="D163" s="14"/>
     </row>
     <row r="164">
-      <c r="D164" s="15"/>
+      <c r="D164" s="14"/>
     </row>
     <row r="165">
-      <c r="D165" s="15"/>
+      <c r="D165" s="14"/>
     </row>
     <row r="166">
-      <c r="D166" s="15"/>
+      <c r="D166" s="14"/>
     </row>
     <row r="167">
-      <c r="D167" s="15"/>
+      <c r="D167" s="14"/>
     </row>
     <row r="168">
-      <c r="D168" s="15"/>
+      <c r="D168" s="14"/>
     </row>
     <row r="169">
-      <c r="D169" s="15"/>
+      <c r="D169" s="14"/>
     </row>
     <row r="170">
-      <c r="D170" s="15"/>
+      <c r="D170" s="14"/>
     </row>
     <row r="171">
-      <c r="D171" s="15"/>
+      <c r="D171" s="14"/>
     </row>
     <row r="172">
-      <c r="D172" s="15"/>
+      <c r="D172" s="14"/>
     </row>
     <row r="173">
-      <c r="D173" s="15"/>
+      <c r="D173" s="14"/>
     </row>
     <row r="174">
-      <c r="D174" s="15"/>
+      <c r="D174" s="14"/>
     </row>
     <row r="175">
-      <c r="D175" s="15"/>
+      <c r="D175" s="14"/>
     </row>
     <row r="176">
-      <c r="D176" s="15"/>
+      <c r="D176" s="14"/>
     </row>
     <row r="177">
-      <c r="D177" s="15"/>
+      <c r="D177" s="14"/>
     </row>
     <row r="178">
-      <c r="D178" s="15"/>
+      <c r="D178" s="14"/>
     </row>
     <row r="179">
-      <c r="D179" s="15"/>
+      <c r="D179" s="14"/>
     </row>
     <row r="180">
-      <c r="D180" s="15"/>
+      <c r="D180" s="14"/>
     </row>
     <row r="181">
-      <c r="D181" s="15"/>
+      <c r="D181" s="14"/>
     </row>
     <row r="182">
-      <c r="D182" s="15"/>
+      <c r="D182" s="14"/>
     </row>
     <row r="183">
-      <c r="D183" s="15"/>
+      <c r="D183" s="14"/>
     </row>
     <row r="184">
-      <c r="D184" s="15"/>
+      <c r="D184" s="14"/>
     </row>
     <row r="185">
-      <c r="D185" s="15"/>
+      <c r="D185" s="14"/>
     </row>
     <row r="186">
-      <c r="D186" s="15"/>
+      <c r="D186" s="14"/>
     </row>
     <row r="187">
-      <c r="D187" s="15"/>
+      <c r="D187" s="14"/>
     </row>
     <row r="188">
-      <c r="D188" s="15"/>
+      <c r="D188" s="14"/>
     </row>
     <row r="189">
-      <c r="D189" s="15"/>
+      <c r="D189" s="14"/>
     </row>
     <row r="190">
-      <c r="D190" s="15"/>
+      <c r="D190" s="14"/>
     </row>
     <row r="191">
-      <c r="D191" s="15"/>
+      <c r="D191" s="14"/>
     </row>
     <row r="192">
-      <c r="D192" s="15"/>
+      <c r="D192" s="14"/>
     </row>
     <row r="193">
-      <c r="D193" s="15"/>
+      <c r="D193" s="14"/>
     </row>
     <row r="194">
-      <c r="D194" s="15"/>
+      <c r="D194" s="14"/>
     </row>
     <row r="195">
-      <c r="D195" s="15"/>
+      <c r="D195" s="14"/>
     </row>
     <row r="196">
-      <c r="D196" s="15"/>
+      <c r="D196" s="14"/>
     </row>
     <row r="197">
-      <c r="D197" s="15"/>
+      <c r="D197" s="14"/>
     </row>
     <row r="198">
-      <c r="D198" s="15"/>
+      <c r="D198" s="14"/>
     </row>
     <row r="199">
-      <c r="D199" s="15"/>
+      <c r="D199" s="14"/>
     </row>
     <row r="200">
-      <c r="D200" s="15"/>
+      <c r="D200" s="14"/>
     </row>
     <row r="201">
-      <c r="D201" s="15"/>
+      <c r="D201" s="14"/>
     </row>
     <row r="202">
-      <c r="D202" s="15"/>
+      <c r="D202" s="14"/>
     </row>
     <row r="203">
-      <c r="D203" s="15"/>
+      <c r="D203" s="14"/>
     </row>
     <row r="204">
-      <c r="D204" s="15"/>
+      <c r="D204" s="14"/>
     </row>
     <row r="205">
-      <c r="D205" s="15"/>
+      <c r="D205" s="14"/>
     </row>
     <row r="206">
-      <c r="D206" s="15"/>
+      <c r="D206" s="14"/>
     </row>
     <row r="207">
-      <c r="D207" s="15"/>
+      <c r="D207" s="14"/>
     </row>
     <row r="208">
-      <c r="D208" s="15"/>
+      <c r="D208" s="14"/>
     </row>
     <row r="209">
-      <c r="D209" s="15"/>
+      <c r="D209" s="14"/>
     </row>
     <row r="210">
-      <c r="D210" s="15"/>
+      <c r="D210" s="14"/>
     </row>
     <row r="211">
-      <c r="D211" s="15"/>
+      <c r="D211" s="14"/>
     </row>
     <row r="212">
-      <c r="D212" s="15"/>
+      <c r="D212" s="14"/>
     </row>
     <row r="213">
-      <c r="D213" s="15"/>
+      <c r="D213" s="14"/>
     </row>
     <row r="214">
-      <c r="D214" s="15"/>
+      <c r="D214" s="14"/>
     </row>
     <row r="215">
-      <c r="D215" s="15"/>
+      <c r="D215" s="14"/>
     </row>
     <row r="216">
-      <c r="D216" s="15"/>
+      <c r="D216" s="14"/>
     </row>
     <row r="217">
-      <c r="D217" s="15"/>
+      <c r="D217" s="14"/>
     </row>
     <row r="218">
-      <c r="D218" s="15"/>
+      <c r="D218" s="14"/>
     </row>
     <row r="219">
-      <c r="D219" s="15"/>
+      <c r="D219" s="14"/>
     </row>
     <row r="220">
-      <c r="D220" s="15"/>
+      <c r="D220" s="14"/>
     </row>
     <row r="221">
-      <c r="D221" s="15"/>
+      <c r="D221" s="14"/>
     </row>
     <row r="222">
-      <c r="D222" s="15"/>
+      <c r="D222" s="14"/>
     </row>
     <row r="223">
-      <c r="D223" s="15"/>
+      <c r="D223" s="14"/>
     </row>
     <row r="224">
-      <c r="D224" s="15"/>
+      <c r="D224" s="14"/>
     </row>
     <row r="225">
-      <c r="D225" s="15"/>
+      <c r="D225" s="14"/>
     </row>
     <row r="226">
-      <c r="D226" s="15"/>
+      <c r="D226" s="14"/>
     </row>
     <row r="227">
-      <c r="D227" s="15"/>
+      <c r="D227" s="14"/>
     </row>
     <row r="228">
-      <c r="D228" s="15"/>
+      <c r="D228" s="14"/>
     </row>
     <row r="229">
-      <c r="D229" s="15"/>
+      <c r="D229" s="14"/>
     </row>
     <row r="230">
-      <c r="D230" s="15"/>
+      <c r="D230" s="14"/>
     </row>
     <row r="231">
-      <c r="D231" s="15"/>
+      <c r="D231" s="14"/>
     </row>
     <row r="232">
-      <c r="D232" s="15"/>
+      <c r="D232" s="14"/>
     </row>
     <row r="233">
-      <c r="D233" s="15"/>
+      <c r="D233" s="14"/>
     </row>
     <row r="234">
-      <c r="D234" s="15"/>
+      <c r="D234" s="14"/>
     </row>
     <row r="235">
-      <c r="D235" s="15"/>
+      <c r="D235" s="14"/>
     </row>
     <row r="236">
-      <c r="D236" s="15"/>
+      <c r="D236" s="14"/>
     </row>
     <row r="237">
-      <c r="D237" s="15"/>
+      <c r="D237" s="14"/>
     </row>
     <row r="238">
-      <c r="D238" s="15"/>
+      <c r="D238" s="14"/>
     </row>
     <row r="239">
-      <c r="D239" s="15"/>
+      <c r="D239" s="14"/>
     </row>
     <row r="240">
-      <c r="D240" s="15"/>
+      <c r="D240" s="14"/>
     </row>
     <row r="241">
-      <c r="D241" s="15"/>
+      <c r="D241" s="14"/>
     </row>
     <row r="242">
-      <c r="D242" s="15"/>
+      <c r="D242" s="14"/>
     </row>
     <row r="243">
-      <c r="D243" s="15"/>
+      <c r="D243" s="14"/>
     </row>
     <row r="244">
-      <c r="D244" s="15"/>
+      <c r="D244" s="14"/>
     </row>
     <row r="245">
-      <c r="D245" s="15"/>
+      <c r="D245" s="14"/>
     </row>
     <row r="246">
-      <c r="D246" s="15"/>
+      <c r="D246" s="14"/>
     </row>
     <row r="247">
-      <c r="D247" s="15"/>
+      <c r="D247" s="14"/>
     </row>
     <row r="248">
-      <c r="D248" s="15"/>
+      <c r="D248" s="14"/>
     </row>
     <row r="249">
-      <c r="D249" s="15"/>
+      <c r="D249" s="14"/>
     </row>
     <row r="250">
-      <c r="D250" s="15"/>
+      <c r="D250" s="14"/>
     </row>
     <row r="251">
-      <c r="D251" s="15"/>
+      <c r="D251" s="14"/>
     </row>
     <row r="252">
-      <c r="D252" s="15"/>
+      <c r="D252" s="14"/>
     </row>
     <row r="253">
-      <c r="D253" s="15"/>
+      <c r="D253" s="14"/>
     </row>
     <row r="254">
-      <c r="D254" s="15"/>
+      <c r="D254" s="14"/>
     </row>
     <row r="255">
-      <c r="D255" s="15"/>
+      <c r="D255" s="14"/>
     </row>
     <row r="256">
-      <c r="D256" s="15"/>
+      <c r="D256" s="14"/>
     </row>
     <row r="257">
-      <c r="D257" s="15"/>
+      <c r="D257" s="14"/>
     </row>
     <row r="258">
-      <c r="D258" s="15"/>
+      <c r="D258" s="14"/>
     </row>
     <row r="259">
-      <c r="D259" s="15"/>
+      <c r="D259" s="14"/>
     </row>
     <row r="260">
-      <c r="D260" s="15"/>
+      <c r="D260" s="14"/>
     </row>
     <row r="261">
-      <c r="D261" s="15"/>
+      <c r="D261" s="14"/>
     </row>
     <row r="262">
-      <c r="D262" s="15"/>
+      <c r="D262" s="14"/>
     </row>
     <row r="263">
-      <c r="D263" s="15"/>
+      <c r="D263" s="14"/>
     </row>
     <row r="264">
-      <c r="D264" s="15"/>
+      <c r="D264" s="14"/>
     </row>
     <row r="265">
-      <c r="D265" s="15"/>
+      <c r="D265" s="14"/>
     </row>
     <row r="266">
-      <c r="D266" s="15"/>
+      <c r="D266" s="14"/>
     </row>
     <row r="267">
-      <c r="D267" s="15"/>
+      <c r="D267" s="14"/>
     </row>
     <row r="268">
-      <c r="D268" s="15"/>
+      <c r="D268" s="14"/>
     </row>
     <row r="269">
-      <c r="D269" s="15"/>
+      <c r="D269" s="14"/>
     </row>
     <row r="270">
-      <c r="D270" s="15"/>
+      <c r="D270" s="14"/>
     </row>
     <row r="271">
-      <c r="D271" s="15"/>
+      <c r="D271" s="14"/>
     </row>
     <row r="272">
-      <c r="D272" s="15"/>
+      <c r="D272" s="14"/>
     </row>
     <row r="273">
-      <c r="D273" s="15"/>
+      <c r="D273" s="14"/>
     </row>
     <row r="274">
-      <c r="D274" s="15"/>
+      <c r="D274" s="14"/>
     </row>
     <row r="275">
-      <c r="D275" s="15"/>
+      <c r="D275" s="14"/>
     </row>
     <row r="276">
-      <c r="D276" s="15"/>
+      <c r="D276" s="14"/>
     </row>
     <row r="277">
-      <c r="D277" s="15"/>
+      <c r="D277" s="14"/>
     </row>
     <row r="278">
-      <c r="D278" s="15"/>
+      <c r="D278" s="14"/>
     </row>
     <row r="279">
-      <c r="D279" s="15"/>
+      <c r="D279" s="14"/>
     </row>
     <row r="280">
-      <c r="D280" s="15"/>
+      <c r="D280" s="14"/>
     </row>
     <row r="281">
-      <c r="D281" s="15"/>
+      <c r="D281" s="14"/>
     </row>
     <row r="282">
-      <c r="D282" s="15"/>
+      <c r="D282" s="14"/>
     </row>
     <row r="283">
-      <c r="D283" s="15"/>
+      <c r="D283" s="14"/>
     </row>
     <row r="284">
-      <c r="D284" s="15"/>
+      <c r="D284" s="14"/>
     </row>
     <row r="285">
-      <c r="D285" s="15"/>
+      <c r="D285" s="14"/>
     </row>
     <row r="286">
-      <c r="D286" s="15"/>
+      <c r="D286" s="14"/>
     </row>
     <row r="287">
-      <c r="D287" s="15"/>
+      <c r="D287" s="14"/>
     </row>
     <row r="288">
-      <c r="D288" s="15"/>
+      <c r="D288" s="14"/>
     </row>
     <row r="289">
-      <c r="D289" s="15"/>
+      <c r="D289" s="14"/>
     </row>
     <row r="290">
-      <c r="D290" s="15"/>
+      <c r="D290" s="14"/>
     </row>
     <row r="291">
-      <c r="D291" s="15"/>
+      <c r="D291" s="14"/>
     </row>
     <row r="292">
-      <c r="D292" s="15"/>
+      <c r="D292" s="14"/>
     </row>
     <row r="293">
-      <c r="D293" s="15"/>
+      <c r="D293" s="14"/>
     </row>
     <row r="294">
-      <c r="D294" s="15"/>
+      <c r="D294" s="14"/>
     </row>
     <row r="295">
-      <c r="D295" s="15"/>
+      <c r="D295" s="14"/>
     </row>
     <row r="296">
-      <c r="D296" s="15"/>
+      <c r="D296" s="14"/>
     </row>
     <row r="297">
-      <c r="D297" s="15"/>
+      <c r="D297" s="14"/>
     </row>
     <row r="298">
-      <c r="D298" s="15"/>
+      <c r="D298" s="14"/>
     </row>
     <row r="299">
-      <c r="D299" s="15"/>
+      <c r="D299" s="14"/>
     </row>
     <row r="300">
-      <c r="D300" s="15"/>
+      <c r="D300" s="14"/>
     </row>
     <row r="301">
-      <c r="D301" s="15"/>
+      <c r="D301" s="14"/>
     </row>
     <row r="302">
-      <c r="D302" s="15"/>
+      <c r="D302" s="14"/>
     </row>
     <row r="303">
-      <c r="D303" s="15"/>
+      <c r="D303" s="14"/>
     </row>
     <row r="304">
-      <c r="D304" s="15"/>
+      <c r="D304" s="14"/>
     </row>
     <row r="305">
-      <c r="D305" s="15"/>
+      <c r="D305" s="14"/>
     </row>
     <row r="306">
-      <c r="D306" s="15"/>
+      <c r="D306" s="14"/>
     </row>
     <row r="307">
-      <c r="D307" s="15"/>
+      <c r="D307" s="14"/>
     </row>
     <row r="308">
-      <c r="D308" s="15"/>
+      <c r="D308" s="14"/>
     </row>
     <row r="309">
-      <c r="D309" s="15"/>
+      <c r="D309" s="14"/>
     </row>
     <row r="310">
-      <c r="D310" s="15"/>
+      <c r="D310" s="14"/>
     </row>
     <row r="311">
-      <c r="D311" s="15"/>
+      <c r="D311" s="14"/>
     </row>
     <row r="312">
-      <c r="D312" s="15"/>
+      <c r="D312" s="14"/>
     </row>
     <row r="313">
-      <c r="D313" s="15"/>
+      <c r="D313" s="14"/>
     </row>
     <row r="314">
-      <c r="D314" s="15"/>
+      <c r="D314" s="14"/>
     </row>
     <row r="315">
-      <c r="D315" s="15"/>
+      <c r="D315" s="14"/>
     </row>
     <row r="316">
-      <c r="D316" s="15"/>
+      <c r="D316" s="14"/>
     </row>
     <row r="317">
-      <c r="D317" s="15"/>
+      <c r="D317" s="14"/>
     </row>
     <row r="318">
-      <c r="D318" s="15"/>
+      <c r="D318" s="14"/>
     </row>
     <row r="319">
-      <c r="D319" s="15"/>
+      <c r="D319" s="14"/>
     </row>
     <row r="320">
-      <c r="D320" s="15"/>
+      <c r="D320" s="14"/>
     </row>
     <row r="321">
-      <c r="D321" s="15"/>
+      <c r="D321" s="14"/>
     </row>
     <row r="322">
-      <c r="D322" s="15"/>
+      <c r="D322" s="14"/>
     </row>
     <row r="323">
-      <c r="D323" s="15"/>
+      <c r="D323" s="14"/>
     </row>
     <row r="324">
-      <c r="D324" s="15"/>
+      <c r="D324" s="14"/>
     </row>
     <row r="325">
-      <c r="D325" s="15"/>
+      <c r="D325" s="14"/>
     </row>
     <row r="326">
-      <c r="D326" s="15"/>
+      <c r="D326" s="14"/>
     </row>
     <row r="327">
-      <c r="D327" s="15"/>
+      <c r="D327" s="14"/>
     </row>
     <row r="328">
-      <c r="D328" s="15"/>
+      <c r="D328" s="14"/>
     </row>
     <row r="329">
-      <c r="D329" s="15"/>
+      <c r="D329" s="14"/>
     </row>
     <row r="330">
-      <c r="D330" s="15"/>
+      <c r="D330" s="14"/>
     </row>
     <row r="331">
-      <c r="D331" s="15"/>
+      <c r="D331" s="14"/>
     </row>
     <row r="332">
-      <c r="D332" s="15"/>
+      <c r="D332" s="14"/>
     </row>
     <row r="333">
-      <c r="D333" s="15"/>
+      <c r="D333" s="14"/>
     </row>
     <row r="334">
-      <c r="D334" s="15"/>
+      <c r="D334" s="14"/>
     </row>
     <row r="335">
-      <c r="D335" s="15"/>
+      <c r="D335" s="14"/>
     </row>
     <row r="336">
-      <c r="D336" s="15"/>
+      <c r="D336" s="14"/>
     </row>
     <row r="337">
-      <c r="D337" s="15"/>
+      <c r="D337" s="14"/>
     </row>
     <row r="338">
-      <c r="D338" s="15"/>
+      <c r="D338" s="14"/>
     </row>
     <row r="339">
-      <c r="D339" s="15"/>
+      <c r="D339" s="14"/>
     </row>
     <row r="340">
-      <c r="D340" s="15"/>
+      <c r="D340" s="14"/>
     </row>
     <row r="341">
-      <c r="D341" s="15"/>
+      <c r="D341" s="14"/>
     </row>
     <row r="342">
-      <c r="D342" s="15"/>
+      <c r="D342" s="14"/>
     </row>
     <row r="343">
-      <c r="D343" s="15"/>
+      <c r="D343" s="14"/>
     </row>
     <row r="344">
-      <c r="D344" s="15"/>
+      <c r="D344" s="14"/>
     </row>
     <row r="345">
-      <c r="D345" s="15"/>
+      <c r="D345" s="14"/>
     </row>
     <row r="346">
-      <c r="D346" s="15"/>
+      <c r="D346" s="14"/>
     </row>
     <row r="347">
-      <c r="D347" s="15"/>
+      <c r="D347" s="14"/>
     </row>
     <row r="348">
-      <c r="D348" s="15"/>
+      <c r="D348" s="14"/>
     </row>
     <row r="349">
-      <c r="D349" s="15"/>
+      <c r="D349" s="14"/>
     </row>
     <row r="350">
-      <c r="D350" s="15"/>
+      <c r="D350" s="14"/>
     </row>
     <row r="351">
-      <c r="D351" s="15"/>
+      <c r="D351" s="14"/>
     </row>
     <row r="352">
-      <c r="D352" s="15"/>
+      <c r="D352" s="14"/>
     </row>
     <row r="353">
-      <c r="D353" s="15"/>
+      <c r="D353" s="14"/>
     </row>
     <row r="354">
-      <c r="D354" s="15"/>
+      <c r="D354" s="14"/>
     </row>
     <row r="355">
-      <c r="D355" s="15"/>
+      <c r="D355" s="14"/>
     </row>
     <row r="356">
-      <c r="D356" s="15"/>
+      <c r="D356" s="14"/>
     </row>
     <row r="357">
-      <c r="D357" s="15"/>
+      <c r="D357" s="14"/>
     </row>
     <row r="358">
-      <c r="D358" s="15"/>
+      <c r="D358" s="14"/>
     </row>
     <row r="359">
-      <c r="D359" s="15"/>
+      <c r="D359" s="14"/>
     </row>
     <row r="360">
-      <c r="D360" s="15"/>
+      <c r="D360" s="14"/>
     </row>
     <row r="361">
-      <c r="D361" s="15"/>
+      <c r="D361" s="14"/>
     </row>
     <row r="362">
-      <c r="D362" s="15"/>
+      <c r="D362" s="14"/>
     </row>
     <row r="363">
-      <c r="D363" s="15"/>
+      <c r="D363" s="14"/>
     </row>
     <row r="364">
-      <c r="D364" s="15"/>
+      <c r="D364" s="14"/>
     </row>
     <row r="365">
-      <c r="D365" s="15"/>
+      <c r="D365" s="14"/>
     </row>
     <row r="366">
-      <c r="D366" s="15"/>
+      <c r="D366" s="14"/>
     </row>
     <row r="367">
-      <c r="D367" s="15"/>
+      <c r="D367" s="14"/>
     </row>
     <row r="368">
-      <c r="D368" s="15"/>
+      <c r="D368" s="14"/>
     </row>
     <row r="369">
-      <c r="D369" s="15"/>
+      <c r="D369" s="14"/>
     </row>
     <row r="370">
-      <c r="D370" s="15"/>
+      <c r="D370" s="14"/>
     </row>
     <row r="371">
-      <c r="D371" s="15"/>
+      <c r="D371" s="14"/>
     </row>
     <row r="372">
-      <c r="D372" s="15"/>
+      <c r="D372" s="14"/>
     </row>
     <row r="373">
-      <c r="D373" s="15"/>
+      <c r="D373" s="14"/>
     </row>
     <row r="374">
-      <c r="D374" s="15"/>
+      <c r="D374" s="14"/>
     </row>
     <row r="375">
-      <c r="D375" s="15"/>
+      <c r="D375" s="14"/>
     </row>
     <row r="376">
-      <c r="D376" s="15"/>
+      <c r="D376" s="14"/>
     </row>
     <row r="377">
-      <c r="D377" s="15"/>
+      <c r="D377" s="14"/>
     </row>
     <row r="378">
-      <c r="D378" s="15"/>
+      <c r="D378" s="14"/>
     </row>
     <row r="379">
-      <c r="D379" s="15"/>
+      <c r="D379" s="14"/>
     </row>
     <row r="380">
-      <c r="D380" s="15"/>
+      <c r="D380" s="14"/>
     </row>
     <row r="381">
-      <c r="D381" s="15"/>
+      <c r="D381" s="14"/>
     </row>
     <row r="382">
-      <c r="D382" s="15"/>
+      <c r="D382" s="14"/>
     </row>
     <row r="383">
-      <c r="D383" s="15"/>
+      <c r="D383" s="14"/>
     </row>
     <row r="384">
-      <c r="D384" s="15"/>
+      <c r="D384" s="14"/>
     </row>
     <row r="385">
-      <c r="D385" s="15"/>
+      <c r="D385" s="14"/>
     </row>
     <row r="386">
-      <c r="D386" s="15"/>
+      <c r="D386" s="14"/>
     </row>
     <row r="387">
-      <c r="D387" s="15"/>
+      <c r="D387" s="14"/>
     </row>
     <row r="388">
-      <c r="D388" s="15"/>
+      <c r="D388" s="14"/>
     </row>
     <row r="389">
-      <c r="D389" s="15"/>
+      <c r="D389" s="14"/>
     </row>
     <row r="390">
-      <c r="D390" s="15"/>
+      <c r="D390" s="14"/>
     </row>
     <row r="391">
-      <c r="D391" s="15"/>
+      <c r="D391" s="14"/>
     </row>
     <row r="392">
-      <c r="D392" s="15"/>
+      <c r="D392" s="14"/>
     </row>
     <row r="393">
-      <c r="D393" s="15"/>
+      <c r="D393" s="14"/>
     </row>
     <row r="394">
-      <c r="D394" s="15"/>
+      <c r="D394" s="14"/>
     </row>
     <row r="395">
-      <c r="D395" s="15"/>
+      <c r="D395" s="14"/>
     </row>
     <row r="396">
-      <c r="D396" s="15"/>
+      <c r="D396" s="14"/>
     </row>
     <row r="397">
-      <c r="D397" s="15"/>
+      <c r="D397" s="14"/>
     </row>
     <row r="398">
-      <c r="D398" s="15"/>
+      <c r="D398" s="14"/>
     </row>
     <row r="399">
-      <c r="D399" s="15"/>
+      <c r="D399" s="14"/>
     </row>
     <row r="400">
-      <c r="D400" s="15"/>
+      <c r="D400" s="14"/>
     </row>
     <row r="401">
-      <c r="D401" s="15"/>
+      <c r="D401" s="14"/>
     </row>
     <row r="402">
-      <c r="D402" s="15"/>
+      <c r="D402" s="14"/>
     </row>
     <row r="403">
-      <c r="D403" s="15"/>
+      <c r="D403" s="14"/>
     </row>
     <row r="404">
-      <c r="D404" s="15"/>
+      <c r="D404" s="14"/>
     </row>
     <row r="405">
-      <c r="D405" s="15"/>
+      <c r="D405" s="14"/>
     </row>
     <row r="406">
-      <c r="D406" s="15"/>
+      <c r="D406" s="14"/>
     </row>
     <row r="407">
-      <c r="D407" s="15"/>
+      <c r="D407" s="14"/>
     </row>
     <row r="408">
-      <c r="D408" s="15"/>
+      <c r="D408" s="14"/>
     </row>
     <row r="409">
-      <c r="D409" s="15"/>
+      <c r="D409" s="14"/>
     </row>
     <row r="410">
-      <c r="D410" s="15"/>
+      <c r="D410" s="14"/>
     </row>
     <row r="411">
-      <c r="D411" s="15"/>
+      <c r="D411" s="14"/>
     </row>
     <row r="412">
-      <c r="D412" s="15"/>
+      <c r="D412" s="14"/>
     </row>
     <row r="413">
-      <c r="D413" s="15"/>
+      <c r="D413" s="14"/>
     </row>
     <row r="414">
-      <c r="D414" s="15"/>
+      <c r="D414" s="14"/>
     </row>
     <row r="415">
-      <c r="D415" s="15"/>
+      <c r="D415" s="14"/>
     </row>
     <row r="416">
-      <c r="D416" s="15"/>
+      <c r="D416" s="14"/>
     </row>
     <row r="417">
-      <c r="D417" s="15"/>
+      <c r="D417" s="14"/>
     </row>
     <row r="418">
-      <c r="D418" s="15"/>
+      <c r="D418" s="14"/>
     </row>
     <row r="419">
-      <c r="D419" s="15"/>
+      <c r="D419" s="14"/>
     </row>
     <row r="420">
-      <c r="D420" s="15"/>
+      <c r="D420" s="14"/>
     </row>
     <row r="421">
-      <c r="D421" s="15"/>
+      <c r="D421" s="14"/>
     </row>
     <row r="422">
-      <c r="D422" s="15"/>
+      <c r="D422" s="14"/>
     </row>
     <row r="423">
-      <c r="D423" s="15"/>
+      <c r="D423" s="14"/>
     </row>
     <row r="424">
-      <c r="D424" s="15"/>
+      <c r="D424" s="14"/>
     </row>
     <row r="425">
-      <c r="D425" s="15"/>
+      <c r="D425" s="14"/>
     </row>
     <row r="426">
-      <c r="D426" s="15"/>
+      <c r="D426" s="14"/>
     </row>
     <row r="427">
-      <c r="D427" s="15"/>
+      <c r="D427" s="14"/>
     </row>
     <row r="428">
-      <c r="D428" s="15"/>
+      <c r="D428" s="14"/>
     </row>
     <row r="429">
-      <c r="D429" s="15"/>
+      <c r="D429" s="14"/>
     </row>
     <row r="430">
-      <c r="D430" s="15"/>
+      <c r="D430" s="14"/>
     </row>
     <row r="431">
-      <c r="D431" s="15"/>
+      <c r="D431" s="14"/>
     </row>
     <row r="432">
-      <c r="D432" s="15"/>
+      <c r="D432" s="14"/>
     </row>
     <row r="433">
-      <c r="D433" s="15"/>
+      <c r="D433" s="14"/>
     </row>
     <row r="434">
-      <c r="D434" s="15"/>
+      <c r="D434" s="14"/>
     </row>
     <row r="435">
-      <c r="D435" s="15"/>
+      <c r="D435" s="14"/>
     </row>
     <row r="436">
-      <c r="D436" s="15"/>
+      <c r="D436" s="14"/>
     </row>
     <row r="437">
-      <c r="D437" s="15"/>
+      <c r="D437" s="14"/>
     </row>
     <row r="438">
-      <c r="D438" s="15"/>
+      <c r="D438" s="14"/>
     </row>
     <row r="439">
-      <c r="D439" s="15"/>
+      <c r="D439" s="14"/>
     </row>
     <row r="440">
-      <c r="D440" s="15"/>
+      <c r="D440" s="14"/>
     </row>
     <row r="441">
-      <c r="D441" s="15"/>
+      <c r="D441" s="14"/>
     </row>
     <row r="442">
-      <c r="D442" s="15"/>
+      <c r="D442" s="14"/>
     </row>
     <row r="443">
-      <c r="D443" s="15"/>
+      <c r="D443" s="14"/>
     </row>
     <row r="444">
-      <c r="D444" s="15"/>
+      <c r="D444" s="14"/>
     </row>
     <row r="445">
-      <c r="D445" s="15"/>
+      <c r="D445" s="14"/>
     </row>
     <row r="446">
-      <c r="D446" s="15"/>
+      <c r="D446" s="14"/>
     </row>
     <row r="447">
-      <c r="D447" s="15"/>
+      <c r="D447" s="14"/>
     </row>
     <row r="448">
-      <c r="D448" s="15"/>
+      <c r="D448" s="14"/>
     </row>
     <row r="449">
-      <c r="D449" s="15"/>
+      <c r="D449" s="14"/>
     </row>
     <row r="450">
-      <c r="D450" s="15"/>
+      <c r="D450" s="14"/>
     </row>
     <row r="451">
-      <c r="D451" s="15"/>
+      <c r="D451" s="14"/>
     </row>
     <row r="452">
-      <c r="D452" s="15"/>
+      <c r="D452" s="14"/>
     </row>
     <row r="453">
-      <c r="D453" s="15"/>
+      <c r="D453" s="14"/>
     </row>
     <row r="454">
-      <c r="D454" s="15"/>
+      <c r="D454" s="14"/>
     </row>
     <row r="455">
-      <c r="D455" s="15"/>
+      <c r="D455" s="14"/>
     </row>
     <row r="456">
-      <c r="D456" s="15"/>
+      <c r="D456" s="14"/>
     </row>
     <row r="457">
-      <c r="D457" s="15"/>
+      <c r="D457" s="14"/>
     </row>
     <row r="458">
-      <c r="D458" s="15"/>
+      <c r="D458" s="14"/>
     </row>
     <row r="459">
-      <c r="D459" s="15"/>
+      <c r="D459" s="14"/>
     </row>
     <row r="460">
-      <c r="D460" s="15"/>
+      <c r="D460" s="14"/>
     </row>
     <row r="461">
-      <c r="D461" s="15"/>
+      <c r="D461" s="14"/>
     </row>
     <row r="462">
-      <c r="D462" s="15"/>
+      <c r="D462" s="14"/>
     </row>
     <row r="463">
-      <c r="D463" s="15"/>
+      <c r="D463" s="14"/>
     </row>
     <row r="464">
-      <c r="D464" s="15"/>
+      <c r="D464" s="14"/>
     </row>
     <row r="465">
-      <c r="D465" s="15"/>
+      <c r="D465" s="14"/>
     </row>
     <row r="466">
-      <c r="D466" s="15"/>
+      <c r="D466" s="14"/>
     </row>
     <row r="467">
-      <c r="D467" s="15"/>
+      <c r="D467" s="14"/>
     </row>
     <row r="468">
-      <c r="D468" s="15"/>
+      <c r="D468" s="14"/>
     </row>
     <row r="469">
-      <c r="D469" s="15"/>
+      <c r="D469" s="14"/>
     </row>
     <row r="470">
-      <c r="D470" s="15"/>
+      <c r="D470" s="14"/>
     </row>
     <row r="471">
-      <c r="D471" s="15"/>
+      <c r="D471" s="14"/>
     </row>
     <row r="472">
-      <c r="D472" s="15"/>
+      <c r="D472" s="14"/>
     </row>
     <row r="473">
-      <c r="D473" s="15"/>
+      <c r="D473" s="14"/>
     </row>
     <row r="474">
-      <c r="D474" s="15"/>
+      <c r="D474" s="14"/>
     </row>
     <row r="475">
-      <c r="D475" s="15"/>
+      <c r="D475" s="14"/>
     </row>
     <row r="476">
-      <c r="D476" s="15"/>
+      <c r="D476" s="14"/>
     </row>
     <row r="477">
-      <c r="D477" s="15"/>
+      <c r="D477" s="14"/>
     </row>
     <row r="478">
-      <c r="D478" s="15"/>
+      <c r="D478" s="14"/>
     </row>
     <row r="479">
-      <c r="D479" s="15"/>
+      <c r="D479" s="14"/>
     </row>
     <row r="480">
-      <c r="D480" s="15"/>
+      <c r="D480" s="14"/>
     </row>
     <row r="481">
-      <c r="D481" s="15"/>
+      <c r="D481" s="14"/>
     </row>
     <row r="482">
-      <c r="D482" s="15"/>
+      <c r="D482" s="14"/>
     </row>
     <row r="483">
-      <c r="D483" s="15"/>
+      <c r="D483" s="14"/>
     </row>
     <row r="484">
-      <c r="D484" s="15"/>
+      <c r="D484" s="14"/>
     </row>
     <row r="485">
-      <c r="D485" s="15"/>
+      <c r="D485" s="14"/>
     </row>
     <row r="486">
-      <c r="D486" s="15"/>
+      <c r="D486" s="14"/>
     </row>
     <row r="487">
-      <c r="D487" s="15"/>
+      <c r="D487" s="14"/>
     </row>
     <row r="488">
-      <c r="D488" s="15"/>
+      <c r="D488" s="14"/>
     </row>
     <row r="489">
-      <c r="D489" s="15"/>
+      <c r="D489" s="14"/>
     </row>
     <row r="490">
-      <c r="D490" s="15"/>
+      <c r="D490" s="14"/>
     </row>
     <row r="491">
-      <c r="D491" s="15"/>
+      <c r="D491" s="14"/>
     </row>
     <row r="492">
-      <c r="D492" s="15"/>
+      <c r="D492" s="14"/>
     </row>
     <row r="493">
-      <c r="D493" s="15"/>
+      <c r="D493" s="14"/>
     </row>
     <row r="494">
-      <c r="D494" s="15"/>
+      <c r="D494" s="14"/>
     </row>
     <row r="495">
-      <c r="D495" s="15"/>
+      <c r="D495" s="14"/>
     </row>
     <row r="496">
-      <c r="D496" s="15"/>
+      <c r="D496" s="14"/>
     </row>
     <row r="497">
-      <c r="D497" s="15"/>
+      <c r="D497" s="14"/>
     </row>
     <row r="498">
-      <c r="D498" s="15"/>
+      <c r="D498" s="14"/>
     </row>
     <row r="499">
-      <c r="D499" s="15"/>
+      <c r="D499" s="14"/>
     </row>
     <row r="500">
-      <c r="D500" s="15"/>
+      <c r="D500" s="14"/>
     </row>
     <row r="501">
-      <c r="D501" s="15"/>
+      <c r="D501" s="14"/>
     </row>
     <row r="502">
-      <c r="D502" s="15"/>
+      <c r="D502" s="14"/>
     </row>
     <row r="503">
-      <c r="D503" s="15"/>
+      <c r="D503" s="14"/>
     </row>
     <row r="504">
-      <c r="D504" s="15"/>
+      <c r="D504" s="14"/>
     </row>
     <row r="505">
-      <c r="D505" s="15"/>
+      <c r="D505" s="14"/>
     </row>
     <row r="506">
-      <c r="D506" s="15"/>
+      <c r="D506" s="14"/>
     </row>
     <row r="507">
-      <c r="D507" s="15"/>
+      <c r="D507" s="14"/>
     </row>
     <row r="508">
-      <c r="D508" s="15"/>
+      <c r="D508" s="14"/>
     </row>
     <row r="509">
-      <c r="D509" s="15"/>
+      <c r="D509" s="14"/>
     </row>
     <row r="510">
-      <c r="D510" s="15"/>
+      <c r="D510" s="14"/>
     </row>
     <row r="511">
-      <c r="D511" s="15"/>
+      <c r="D511" s="14"/>
     </row>
     <row r="512">
-      <c r="D512" s="15"/>
+      <c r="D512" s="14"/>
     </row>
     <row r="513">
-      <c r="D513" s="15"/>
+      <c r="D513" s="14"/>
     </row>
     <row r="514">
-      <c r="D514" s="15"/>
+      <c r="D514" s="14"/>
     </row>
     <row r="515">
-      <c r="D515" s="15"/>
+      <c r="D515" s="14"/>
     </row>
     <row r="516">
-      <c r="D516" s="15"/>
+      <c r="D516" s="14"/>
     </row>
     <row r="517">
-      <c r="D517" s="15"/>
+      <c r="D517" s="14"/>
     </row>
     <row r="518">
-      <c r="D518" s="15"/>
+      <c r="D518" s="14"/>
     </row>
     <row r="519">
-      <c r="D519" s="15"/>
+      <c r="D519" s="14"/>
     </row>
     <row r="520">
-      <c r="D520" s="15"/>
+      <c r="D520" s="14"/>
     </row>
     <row r="521">
-      <c r="D521" s="15"/>
+      <c r="D521" s="14"/>
     </row>
     <row r="522">
-      <c r="D522" s="15"/>
+      <c r="D522" s="14"/>
     </row>
     <row r="523">
-      <c r="D523" s="15"/>
+      <c r="D523" s="14"/>
     </row>
     <row r="524">
-      <c r="D524" s="15"/>
+      <c r="D524" s="14"/>
     </row>
     <row r="525">
-      <c r="D525" s="15"/>
+      <c r="D525" s="14"/>
     </row>
     <row r="526">
-      <c r="D526" s="15"/>
+      <c r="D526" s="14"/>
     </row>
     <row r="527">
-      <c r="D527" s="15"/>
+      <c r="D527" s="14"/>
     </row>
     <row r="528">
-      <c r="D528" s="15"/>
+      <c r="D528" s="14"/>
     </row>
     <row r="529">
-      <c r="D529" s="15"/>
+      <c r="D529" s="14"/>
     </row>
     <row r="530">
-      <c r="D530" s="15"/>
+      <c r="D530" s="14"/>
     </row>
     <row r="531">
-      <c r="D531" s="15"/>
+      <c r="D531" s="14"/>
     </row>
     <row r="532">
-      <c r="D532" s="15"/>
+      <c r="D532" s="14"/>
     </row>
     <row r="533">
-      <c r="D533" s="15"/>
+      <c r="D533" s="14"/>
     </row>
     <row r="534">
-      <c r="D534" s="15"/>
+      <c r="D534" s="14"/>
     </row>
     <row r="535">
-      <c r="D535" s="15"/>
+      <c r="D535" s="14"/>
     </row>
     <row r="536">
-      <c r="D536" s="15"/>
+      <c r="D536" s="14"/>
     </row>
     <row r="537">
-      <c r="D537" s="15"/>
+      <c r="D537" s="14"/>
     </row>
     <row r="538">
-      <c r="D538" s="15"/>
+      <c r="D538" s="14"/>
     </row>
     <row r="539">
-      <c r="D539" s="15"/>
+      <c r="D539" s="14"/>
     </row>
     <row r="540">
-      <c r="D540" s="15"/>
+      <c r="D540" s="14"/>
     </row>
     <row r="541">
-      <c r="D541" s="15"/>
+      <c r="D541" s="14"/>
     </row>
     <row r="542">
-      <c r="D542" s="15"/>
+      <c r="D542" s="14"/>
     </row>
     <row r="543">
-      <c r="D543" s="15"/>
+      <c r="D543" s="14"/>
     </row>
     <row r="544">
-      <c r="D544" s="15"/>
+      <c r="D544" s="14"/>
     </row>
     <row r="545">
-      <c r="D545" s="15"/>
+      <c r="D545" s="14"/>
     </row>
     <row r="546">
-      <c r="D546" s="15"/>
+      <c r="D546" s="14"/>
     </row>
     <row r="547">
-      <c r="D547" s="15"/>
+      <c r="D547" s="14"/>
     </row>
     <row r="548">
-      <c r="D548" s="15"/>
+      <c r="D548" s="14"/>
     </row>
     <row r="549">
-      <c r="D549" s="15"/>
+      <c r="D549" s="14"/>
     </row>
     <row r="550">
-      <c r="D550" s="15"/>
+      <c r="D550" s="14"/>
     </row>
     <row r="551">
-      <c r="D551" s="15"/>
+      <c r="D551" s="14"/>
     </row>
     <row r="552">
-      <c r="D552" s="15"/>
+      <c r="D552" s="14"/>
     </row>
     <row r="553">
-      <c r="D553" s="15"/>
+      <c r="D553" s="14"/>
     </row>
     <row r="554">
-      <c r="D554" s="15"/>
+      <c r="D554" s="14"/>
     </row>
     <row r="555">
-      <c r="D555" s="15"/>
+      <c r="D555" s="14"/>
     </row>
     <row r="556">
-      <c r="D556" s="15"/>
+      <c r="D556" s="14"/>
     </row>
     <row r="557">
-      <c r="D557" s="15"/>
+      <c r="D557" s="14"/>
     </row>
     <row r="558">
-      <c r="D558" s="15"/>
+      <c r="D558" s="14"/>
     </row>
     <row r="559">
-      <c r="D559" s="15"/>
+      <c r="D559" s="14"/>
     </row>
     <row r="560">
-      <c r="D560" s="15"/>
+      <c r="D560" s="14"/>
     </row>
     <row r="561">
-      <c r="D561" s="15"/>
+      <c r="D561" s="14"/>
     </row>
     <row r="562">
-      <c r="D562" s="15"/>
+      <c r="D562" s="14"/>
     </row>
     <row r="563">
-      <c r="D563" s="15"/>
+      <c r="D563" s="14"/>
     </row>
     <row r="564">
-      <c r="D564" s="15"/>
+      <c r="D564" s="14"/>
     </row>
     <row r="565">
-      <c r="D565" s="15"/>
+      <c r="D565" s="14"/>
     </row>
     <row r="566">
-      <c r="D566" s="15"/>
+      <c r="D566" s="14"/>
     </row>
     <row r="567">
-      <c r="D567" s="15"/>
+      <c r="D567" s="14"/>
     </row>
     <row r="568">
-      <c r="D568" s="15"/>
+      <c r="D568" s="14"/>
     </row>
     <row r="569">
-      <c r="D569" s="15"/>
+      <c r="D569" s="14"/>
     </row>
     <row r="570">
-      <c r="D570" s="15"/>
+      <c r="D570" s="14"/>
     </row>
     <row r="571">
-      <c r="D571" s="15"/>
+      <c r="D571" s="14"/>
     </row>
     <row r="572">
-      <c r="D572" s="15"/>
+      <c r="D572" s="14"/>
     </row>
     <row r="573">
-      <c r="D573" s="15"/>
+      <c r="D573" s="14"/>
     </row>
     <row r="574">
-      <c r="D574" s="15"/>
+      <c r="D574" s="14"/>
     </row>
     <row r="575">
-      <c r="D575" s="15"/>
+      <c r="D575" s="14"/>
     </row>
     <row r="576">
-      <c r="D576" s="15"/>
+      <c r="D576" s="14"/>
     </row>
     <row r="577">
-      <c r="D577" s="15"/>
+      <c r="D577" s="14"/>
     </row>
     <row r="578">
-      <c r="D578" s="15"/>
+      <c r="D578" s="14"/>
     </row>
     <row r="579">
-      <c r="D579" s="15"/>
+      <c r="D579" s="14"/>
     </row>
     <row r="580">
-      <c r="D580" s="15"/>
+      <c r="D580" s="14"/>
     </row>
     <row r="581">
-      <c r="D581" s="15"/>
+      <c r="D581" s="14"/>
     </row>
     <row r="582">
-      <c r="D582" s="15"/>
+      <c r="D582" s="14"/>
     </row>
     <row r="583">
-      <c r="D583" s="15"/>
+      <c r="D583" s="14"/>
     </row>
     <row r="584">
-      <c r="D584" s="15"/>
+      <c r="D584" s="14"/>
     </row>
     <row r="585">
-      <c r="D585" s="15"/>
+      <c r="D585" s="14"/>
     </row>
     <row r="586">
-      <c r="D586" s="15"/>
+      <c r="D586" s="14"/>
     </row>
     <row r="587">
-      <c r="D587" s="15"/>
+      <c r="D587" s="14"/>
     </row>
     <row r="588">
-      <c r="D588" s="15"/>
+      <c r="D588" s="14"/>
     </row>
     <row r="589">
-      <c r="D589" s="15"/>
+      <c r="D589" s="14"/>
     </row>
     <row r="590">
-      <c r="D590" s="15"/>
+      <c r="D590" s="14"/>
     </row>
     <row r="591">
-      <c r="D591" s="15"/>
+      <c r="D591" s="14"/>
     </row>
     <row r="592">
-      <c r="D592" s="15"/>
+      <c r="D592" s="14"/>
     </row>
     <row r="593">
-      <c r="D593" s="15"/>
+      <c r="D593" s="14"/>
     </row>
     <row r="594">
-      <c r="D594" s="15"/>
+      <c r="D594" s="14"/>
     </row>
     <row r="595">
-      <c r="D595" s="15"/>
+      <c r="D595" s="14"/>
     </row>
     <row r="596">
-      <c r="D596" s="15"/>
+      <c r="D596" s="14"/>
     </row>
     <row r="597">
-      <c r="D597" s="15"/>
+      <c r="D597" s="14"/>
     </row>
     <row r="598">
-      <c r="D598" s="15"/>
+      <c r="D598" s="14"/>
     </row>
     <row r="599">
-      <c r="D599" s="15"/>
+      <c r="D599" s="14"/>
     </row>
     <row r="600">
-      <c r="D600" s="15"/>
+      <c r="D600" s="14"/>
     </row>
     <row r="601">
-      <c r="D601" s="15"/>
+      <c r="D601" s="14"/>
     </row>
     <row r="602">
-      <c r="D602" s="15"/>
+      <c r="D602" s="14"/>
     </row>
     <row r="603">
-      <c r="D603" s="15"/>
+      <c r="D603" s="14"/>
     </row>
     <row r="604">
-      <c r="D604" s="15"/>
+      <c r="D604" s="14"/>
     </row>
     <row r="605">
-      <c r="D605" s="15"/>
+      <c r="D605" s="14"/>
     </row>
     <row r="606">
-      <c r="D606" s="15"/>
+      <c r="D606" s="14"/>
     </row>
     <row r="607">
-      <c r="D607" s="15"/>
+      <c r="D607" s="14"/>
     </row>
     <row r="608">
-      <c r="D608" s="15"/>
+      <c r="D608" s="14"/>
     </row>
     <row r="609">
-      <c r="D609" s="15"/>
+      <c r="D609" s="14"/>
     </row>
     <row r="610">
-      <c r="D610" s="15"/>
+      <c r="D610" s="14"/>
     </row>
     <row r="611">
-      <c r="D611" s="15"/>
+      <c r="D611" s="14"/>
     </row>
     <row r="612">
-      <c r="D612" s="15"/>
+      <c r="D612" s="14"/>
     </row>
     <row r="613">
-      <c r="D613" s="15"/>
+      <c r="D613" s="14"/>
     </row>
     <row r="614">
-      <c r="D614" s="15"/>
+      <c r="D614" s="14"/>
     </row>
     <row r="615">
-      <c r="D615" s="15"/>
+      <c r="D615" s="14"/>
     </row>
     <row r="616">
-      <c r="D616" s="15"/>
+      <c r="D616" s="14"/>
     </row>
     <row r="617">
-      <c r="D617" s="15"/>
+      <c r="D617" s="14"/>
     </row>
     <row r="618">
-      <c r="D618" s="15"/>
+      <c r="D618" s="14"/>
     </row>
     <row r="619">
-      <c r="D619" s="15"/>
+      <c r="D619" s="14"/>
     </row>
     <row r="620">
-      <c r="D620" s="15"/>
+      <c r="D620" s="14"/>
     </row>
     <row r="621">
-      <c r="D621" s="15"/>
+      <c r="D621" s="14"/>
     </row>
     <row r="622">
-      <c r="D622" s="15"/>
+      <c r="D622" s="14"/>
     </row>
     <row r="623">
-      <c r="D623" s="15"/>
+      <c r="D623" s="14"/>
     </row>
     <row r="624">
-      <c r="D624" s="15"/>
+      <c r="D624" s="14"/>
     </row>
     <row r="625">
-      <c r="D625" s="15"/>
+      <c r="D625" s="14"/>
     </row>
     <row r="626">
-      <c r="D626" s="15"/>
+      <c r="D626" s="14"/>
     </row>
     <row r="627">
-      <c r="D627" s="15"/>
+      <c r="D627" s="14"/>
     </row>
     <row r="628">
-      <c r="D628" s="15"/>
+      <c r="D628" s="14"/>
     </row>
     <row r="629">
-      <c r="D629" s="15"/>
+      <c r="D629" s="14"/>
     </row>
     <row r="630">
-      <c r="D630" s="15"/>
+      <c r="D630" s="14"/>
     </row>
     <row r="631">
-      <c r="D631" s="15"/>
+      <c r="D631" s="14"/>
     </row>
     <row r="632">
-      <c r="D632" s="15"/>
+      <c r="D632" s="14"/>
     </row>
     <row r="633">
-      <c r="D633" s="15"/>
+      <c r="D633" s="14"/>
     </row>
     <row r="634">
-      <c r="D634" s="15"/>
+      <c r="D634" s="14"/>
     </row>
     <row r="635">
-      <c r="D635" s="15"/>
+      <c r="D635" s="14"/>
     </row>
     <row r="636">
-      <c r="D636" s="15"/>
+      <c r="D636" s="14"/>
     </row>
     <row r="637">
-      <c r="D637" s="15"/>
+      <c r="D637" s="14"/>
     </row>
     <row r="638">
-      <c r="D638" s="15"/>
+      <c r="D638" s="14"/>
     </row>
     <row r="639">
-      <c r="D639" s="15"/>
+      <c r="D639" s="14"/>
     </row>
     <row r="640">
-      <c r="D640" s="15"/>
+      <c r="D640" s="14"/>
     </row>
     <row r="641">
-      <c r="D641" s="15"/>
+      <c r="D641" s="14"/>
     </row>
     <row r="642">
-      <c r="D642" s="15"/>
+      <c r="D642" s="14"/>
     </row>
     <row r="643">
-      <c r="D643" s="15"/>
+      <c r="D643" s="14"/>
     </row>
     <row r="644">
-      <c r="D644" s="15"/>
+      <c r="D644" s="14"/>
     </row>
     <row r="645">
-      <c r="D645" s="15"/>
+      <c r="D645" s="14"/>
     </row>
     <row r="646">
-      <c r="D646" s="15"/>
+      <c r="D646" s="14"/>
     </row>
     <row r="647">
-      <c r="D647" s="15"/>
+      <c r="D647" s="14"/>
     </row>
     <row r="648">
-      <c r="D648" s="15"/>
+      <c r="D648" s="14"/>
     </row>
     <row r="649">
-      <c r="D649" s="15"/>
+      <c r="D649" s="14"/>
     </row>
     <row r="650">
-      <c r="D650" s="15"/>
+      <c r="D650" s="14"/>
     </row>
     <row r="651">
-      <c r="D651" s="15"/>
+      <c r="D651" s="14"/>
     </row>
     <row r="652">
-      <c r="D652" s="15"/>
+      <c r="D652" s="14"/>
     </row>
     <row r="653">
-      <c r="D653" s="15"/>
+      <c r="D653" s="14"/>
     </row>
     <row r="654">
-      <c r="D654" s="15"/>
+      <c r="D654" s="14"/>
     </row>
     <row r="655">
-      <c r="D655" s="15"/>
+      <c r="D655" s="14"/>
     </row>
     <row r="656">
-      <c r="D656" s="15"/>
+      <c r="D656" s="14"/>
     </row>
     <row r="657">
-      <c r="D657" s="15"/>
+      <c r="D657" s="14"/>
     </row>
     <row r="658">
-      <c r="D658" s="15"/>
+      <c r="D658" s="14"/>
     </row>
     <row r="659">
-      <c r="D659" s="15"/>
+      <c r="D659" s="14"/>
     </row>
     <row r="660">
-      <c r="D660" s="15"/>
+      <c r="D660" s="14"/>
     </row>
     <row r="661">
-      <c r="D661" s="15"/>
+      <c r="D661" s="14"/>
     </row>
     <row r="662">
-      <c r="D662" s="15"/>
+      <c r="D662" s="14"/>
     </row>
     <row r="663">
-      <c r="D663" s="15"/>
+      <c r="D663" s="14"/>
     </row>
     <row r="664">
-      <c r="D664" s="15"/>
+      <c r="D664" s="14"/>
     </row>
     <row r="665">
-      <c r="D665" s="15"/>
+      <c r="D665" s="14"/>
     </row>
     <row r="666">
-      <c r="D666" s="15"/>
+      <c r="D666" s="14"/>
     </row>
     <row r="667">
-      <c r="D667" s="15"/>
+      <c r="D667" s="14"/>
     </row>
     <row r="668">
-      <c r="D668" s="15"/>
+      <c r="D668" s="14"/>
     </row>
     <row r="669">
-      <c r="D669" s="15"/>
+      <c r="D669" s="14"/>
     </row>
     <row r="670">
-      <c r="D670" s="15"/>
+      <c r="D670" s="14"/>
     </row>
     <row r="671">
-      <c r="D671" s="15"/>
+      <c r="D671" s="14"/>
     </row>
     <row r="672">
-      <c r="D672" s="15"/>
+      <c r="D672" s="14"/>
     </row>
     <row r="673">
-      <c r="D673" s="15"/>
+      <c r="D673" s="14"/>
     </row>
     <row r="674">
-      <c r="D674" s="15"/>
+      <c r="D674" s="14"/>
     </row>
     <row r="675">
-      <c r="D675" s="15"/>
+      <c r="D675" s="14"/>
     </row>
     <row r="676">
-      <c r="D676" s="15"/>
+      <c r="D676" s="14"/>
     </row>
     <row r="677">
-      <c r="D677" s="15"/>
+      <c r="D677" s="14"/>
     </row>
     <row r="678">
-      <c r="D678" s="15"/>
+      <c r="D678" s="14"/>
     </row>
     <row r="679">
-      <c r="D679" s="15"/>
+      <c r="D679" s="14"/>
     </row>
     <row r="680">
-      <c r="D680" s="15"/>
+      <c r="D680" s="14"/>
     </row>
     <row r="681">
-      <c r="D681" s="15"/>
+      <c r="D681" s="14"/>
     </row>
     <row r="682">
-      <c r="D682" s="15"/>
+      <c r="D682" s="14"/>
     </row>
     <row r="683">
-      <c r="D683" s="15"/>
+      <c r="D683" s="14"/>
     </row>
     <row r="684">
-      <c r="D684" s="15"/>
+      <c r="D684" s="14"/>
     </row>
     <row r="685">
-      <c r="D685" s="15"/>
+      <c r="D685" s="14"/>
     </row>
     <row r="686">
-      <c r="D686" s="15"/>
+      <c r="D686" s="14"/>
     </row>
     <row r="687">
-      <c r="D687" s="15"/>
+      <c r="D687" s="14"/>
     </row>
     <row r="688">
-      <c r="D688" s="15"/>
+      <c r="D688" s="14"/>
     </row>
     <row r="689">
-      <c r="D689" s="15"/>
+      <c r="D689" s="14"/>
     </row>
     <row r="690">
-      <c r="D690" s="15"/>
+      <c r="D690" s="14"/>
     </row>
     <row r="691">
-      <c r="D691" s="15"/>
+      <c r="D691" s="14"/>
     </row>
     <row r="692">
-      <c r="D692" s="15"/>
+      <c r="D692" s="14"/>
     </row>
     <row r="693">
-      <c r="D693" s="15"/>
+      <c r="D693" s="14"/>
     </row>
     <row r="694">
-      <c r="D694" s="15"/>
+      <c r="D694" s="14"/>
     </row>
     <row r="695">
-      <c r="D695" s="15"/>
+      <c r="D695" s="14"/>
     </row>
     <row r="696">
-      <c r="D696" s="15"/>
+      <c r="D696" s="14"/>
     </row>
     <row r="697">
-      <c r="D697" s="15"/>
+      <c r="D697" s="14"/>
     </row>
     <row r="698">
-      <c r="D698" s="15"/>
+      <c r="D698" s="14"/>
     </row>
     <row r="699">
-      <c r="D699" s="15"/>
+      <c r="D699" s="14"/>
     </row>
     <row r="700">
-      <c r="D700" s="15"/>
+      <c r="D700" s="14"/>
     </row>
     <row r="701">
-      <c r="D701" s="15"/>
+      <c r="D701" s="14"/>
     </row>
     <row r="702">
-      <c r="D702" s="15"/>
+      <c r="D702" s="14"/>
     </row>
     <row r="703">
-      <c r="D703" s="15"/>
+      <c r="D703" s="14"/>
     </row>
     <row r="704">
-      <c r="D704" s="15"/>
+      <c r="D704" s="14"/>
     </row>
     <row r="705">
-      <c r="D705" s="15"/>
+      <c r="D705" s="14"/>
     </row>
     <row r="706">
-      <c r="D706" s="15"/>
+      <c r="D706" s="14"/>
     </row>
     <row r="707">
-      <c r="D707" s="15"/>
+      <c r="D707" s="14"/>
     </row>
     <row r="708">
-      <c r="D708" s="15"/>
+      <c r="D708" s="14"/>
     </row>
     <row r="709">
-      <c r="D709" s="15"/>
+      <c r="D709" s="14"/>
     </row>
     <row r="710">
-      <c r="D710" s="15"/>
+      <c r="D710" s="14"/>
     </row>
     <row r="711">
-      <c r="D711" s="15"/>
+      <c r="D711" s="14"/>
     </row>
     <row r="712">
-      <c r="D712" s="15"/>
+      <c r="D712" s="14"/>
     </row>
     <row r="713">
-      <c r="D713" s="15"/>
+      <c r="D713" s="14"/>
     </row>
     <row r="714">
-      <c r="D714" s="15"/>
+      <c r="D714" s="14"/>
     </row>
     <row r="715">
-      <c r="D715" s="15"/>
+      <c r="D715" s="14"/>
     </row>
     <row r="716">
-      <c r="D716" s="15"/>
+      <c r="D716" s="14"/>
     </row>
     <row r="717">
-      <c r="D717" s="15"/>
+      <c r="D717" s="14"/>
     </row>
     <row r="718">
-      <c r="D718" s="15"/>
+      <c r="D718" s="14"/>
     </row>
     <row r="719">
-      <c r="D719" s="15"/>
+      <c r="D719" s="14"/>
     </row>
     <row r="720">
-      <c r="D720" s="15"/>
+      <c r="D720" s="14"/>
     </row>
     <row r="721">
-      <c r="D721" s="15"/>
+      <c r="D721" s="14"/>
     </row>
     <row r="722">
-      <c r="D722" s="15"/>
+      <c r="D722" s="14"/>
     </row>
     <row r="723">
-      <c r="D723" s="15"/>
+      <c r="D723" s="14"/>
     </row>
     <row r="724">
-      <c r="D724" s="15"/>
+      <c r="D724" s="14"/>
     </row>
     <row r="725">
-      <c r="D725" s="15"/>
+      <c r="D725" s="14"/>
     </row>
     <row r="726">
-      <c r="D726" s="15"/>
+      <c r="D726" s="14"/>
     </row>
     <row r="727">
-      <c r="D727" s="15"/>
+      <c r="D727" s="14"/>
     </row>
     <row r="728">
-      <c r="D728" s="15"/>
+      <c r="D728" s="14"/>
     </row>
     <row r="729">
-      <c r="D729" s="15"/>
+      <c r="D729" s="14"/>
     </row>
     <row r="730">
-      <c r="D730" s="15"/>
+      <c r="D730" s="14"/>
     </row>
     <row r="731">
-      <c r="D731" s="15"/>
+      <c r="D731" s="14"/>
     </row>
     <row r="732">
-      <c r="D732" s="15"/>
+      <c r="D732" s="14"/>
     </row>
     <row r="733">
-      <c r="D733" s="15"/>
+      <c r="D733" s="14"/>
     </row>
     <row r="734">
-      <c r="D734" s="15"/>
+      <c r="D734" s="14"/>
     </row>
     <row r="735">
-      <c r="D735" s="15"/>
+      <c r="D735" s="14"/>
     </row>
     <row r="736">
-      <c r="D736" s="15"/>
+      <c r="D736" s="14"/>
     </row>
     <row r="737">
-      <c r="D737" s="15"/>
+      <c r="D737" s="14"/>
     </row>
     <row r="738">
-      <c r="D738" s="15"/>
+      <c r="D738" s="14"/>
     </row>
     <row r="739">
-      <c r="D739" s="15"/>
+      <c r="D739" s="14"/>
     </row>
     <row r="740">
-      <c r="D740" s="15"/>
+      <c r="D740" s="14"/>
     </row>
     <row r="741">
-      <c r="D741" s="15"/>
+      <c r="D741" s="14"/>
     </row>
     <row r="742">
-      <c r="D742" s="15"/>
+      <c r="D742" s="14"/>
     </row>
     <row r="743">
-      <c r="D743" s="15"/>
+      <c r="D743" s="14"/>
     </row>
     <row r="744">
-      <c r="D744" s="15"/>
+      <c r="D744" s="14"/>
     </row>
     <row r="745">
-      <c r="D745" s="15"/>
+      <c r="D745" s="14"/>
     </row>
     <row r="746">
-      <c r="D746" s="15"/>
+      <c r="D746" s="14"/>
     </row>
     <row r="747">
-      <c r="D747" s="15"/>
+      <c r="D747" s="14"/>
     </row>
     <row r="748">
-      <c r="D748" s="15"/>
+      <c r="D748" s="14"/>
     </row>
     <row r="749">
-      <c r="D749" s="15"/>
+      <c r="D749" s="14"/>
     </row>
     <row r="750">
-      <c r="D750" s="15"/>
+      <c r="D750" s="14"/>
     </row>
     <row r="751">
-      <c r="D751" s="15"/>
+      <c r="D751" s="14"/>
     </row>
     <row r="752">
-      <c r="D752" s="15"/>
+      <c r="D752" s="14"/>
     </row>
     <row r="753">
-      <c r="D753" s="15"/>
+      <c r="D753" s="14"/>
     </row>
     <row r="754">
-      <c r="D754" s="15"/>
+      <c r="D754" s="14"/>
     </row>
     <row r="755">
-      <c r="D755" s="15"/>
+      <c r="D755" s="14"/>
     </row>
     <row r="756">
-      <c r="D756" s="15"/>
+      <c r="D756" s="14"/>
     </row>
     <row r="757">
-      <c r="D757" s="15"/>
+      <c r="D757" s="14"/>
     </row>
     <row r="758">
-      <c r="D758" s="15"/>
+      <c r="D758" s="14"/>
     </row>
     <row r="759">
-      <c r="D759" s="15"/>
+      <c r="D759" s="14"/>
     </row>
     <row r="760">
-      <c r="D760" s="15"/>
+      <c r="D760" s="14"/>
     </row>
     <row r="761">
-      <c r="D761" s="15"/>
+      <c r="D761" s="14"/>
     </row>
     <row r="762">
-      <c r="D762" s="15"/>
+      <c r="D762" s="14"/>
     </row>
     <row r="763">
-      <c r="D763" s="15"/>
+      <c r="D763" s="14"/>
     </row>
     <row r="764">
-      <c r="D764" s="15"/>
+      <c r="D764" s="14"/>
     </row>
     <row r="765">
-      <c r="D765" s="15"/>
+      <c r="D765" s="14"/>
     </row>
     <row r="766">
-      <c r="D766" s="15"/>
+      <c r="D766" s="14"/>
     </row>
     <row r="767">
-      <c r="D767" s="15"/>
+      <c r="D767" s="14"/>
     </row>
     <row r="768">
-      <c r="D768" s="15"/>
+      <c r="D768" s="14"/>
     </row>
     <row r="769">
-      <c r="D769" s="15"/>
+      <c r="D769" s="14"/>
     </row>
     <row r="770">
-      <c r="D770" s="15"/>
+      <c r="D770" s="14"/>
     </row>
     <row r="771">
-      <c r="D771" s="15"/>
+      <c r="D771" s="14"/>
     </row>
     <row r="772">
-      <c r="D772" s="15"/>
+      <c r="D772" s="14"/>
     </row>
     <row r="773">
-      <c r="D773" s="15"/>
+      <c r="D773" s="14"/>
     </row>
     <row r="774">
-      <c r="D774" s="15"/>
+      <c r="D774" s="14"/>
     </row>
     <row r="775">
-      <c r="D775" s="15"/>
+      <c r="D775" s="14"/>
     </row>
     <row r="776">
-      <c r="D776" s="15"/>
+      <c r="D776" s="14"/>
     </row>
     <row r="777">
-      <c r="D777" s="15"/>
+      <c r="D777" s="14"/>
     </row>
     <row r="778">
-      <c r="D778" s="15"/>
+      <c r="D778" s="14"/>
     </row>
     <row r="779">
-      <c r="D779" s="15"/>
+      <c r="D779" s="14"/>
     </row>
     <row r="780">
-      <c r="D780" s="15"/>
+      <c r="D780" s="14"/>
     </row>
     <row r="781">
-      <c r="D781" s="15"/>
+      <c r="D781" s="14"/>
     </row>
     <row r="782">
-      <c r="D782" s="15"/>
+      <c r="D782" s="14"/>
     </row>
     <row r="783">
-      <c r="D783" s="15"/>
+      <c r="D783" s="14"/>
     </row>
     <row r="784">
-      <c r="D784" s="15"/>
+      <c r="D784" s="14"/>
     </row>
     <row r="785">
-      <c r="D785" s="15"/>
+      <c r="D785" s="14"/>
     </row>
     <row r="786">
-      <c r="D786" s="15"/>
+      <c r="D786" s="14"/>
     </row>
     <row r="787">
-      <c r="D787" s="15"/>
+      <c r="D787" s="14"/>
     </row>
     <row r="788">
-      <c r="D788" s="15"/>
+      <c r="D788" s="14"/>
     </row>
     <row r="789">
-      <c r="D789" s="15"/>
+      <c r="D789" s="14"/>
     </row>
     <row r="790">
-      <c r="D790" s="15"/>
+      <c r="D790" s="14"/>
     </row>
     <row r="791">
-      <c r="D791" s="15"/>
+      <c r="D791" s="14"/>
     </row>
     <row r="792">
-      <c r="D792" s="15"/>
+      <c r="D792" s="14"/>
     </row>
     <row r="793">
-      <c r="D793" s="15"/>
+      <c r="D793" s="14"/>
     </row>
     <row r="794">
-      <c r="D794" s="15"/>
+      <c r="D794" s="14"/>
     </row>
     <row r="795">
-      <c r="D795" s="15"/>
+      <c r="D795" s="14"/>
     </row>
     <row r="796">
-      <c r="D796" s="15"/>
+      <c r="D796" s="14"/>
     </row>
     <row r="797">
-      <c r="D797" s="15"/>
+      <c r="D797" s="14"/>
     </row>
     <row r="798">
-      <c r="D798" s="15"/>
+      <c r="D798" s="14"/>
     </row>
     <row r="799">
-      <c r="D799" s="15"/>
+      <c r="D799" s="14"/>
     </row>
     <row r="800">
-      <c r="D800" s="15"/>
+      <c r="D800" s="14"/>
     </row>
     <row r="801">
-      <c r="D801" s="15"/>
+      <c r="D801" s="14"/>
     </row>
     <row r="802">
-      <c r="D802" s="15"/>
+      <c r="D802" s="14"/>
     </row>
     <row r="803">
-      <c r="D803" s="15"/>
+      <c r="D803" s="14"/>
     </row>
     <row r="804">
-      <c r="D804" s="15"/>
+      <c r="D804" s="14"/>
     </row>
     <row r="805">
-      <c r="D805" s="15"/>
+      <c r="D805" s="14"/>
     </row>
     <row r="806">
-      <c r="D806" s="15"/>
+      <c r="D806" s="14"/>
     </row>
     <row r="807">
-      <c r="D807" s="15"/>
+      <c r="D807" s="14"/>
     </row>
     <row r="808">
-      <c r="D808" s="15"/>
+      <c r="D808" s="14"/>
     </row>
     <row r="809">
-      <c r="D809" s="15"/>
+      <c r="D809" s="14"/>
     </row>
     <row r="810">
-      <c r="D810" s="15"/>
+      <c r="D810" s="14"/>
     </row>
     <row r="811">
-      <c r="D811" s="15"/>
+      <c r="D811" s="14"/>
     </row>
     <row r="812">
-      <c r="D812" s="15"/>
+      <c r="D812" s="14"/>
     </row>
     <row r="813">
-      <c r="D813" s="15"/>
+      <c r="D813" s="14"/>
     </row>
     <row r="814">
-      <c r="D814" s="15"/>
+      <c r="D814" s="14"/>
     </row>
     <row r="815">
-      <c r="D815" s="15"/>
+      <c r="D815" s="14"/>
     </row>
     <row r="816">
-      <c r="D816" s="15"/>
+      <c r="D816" s="14"/>
     </row>
     <row r="817">
-      <c r="D817" s="15"/>
+      <c r="D817" s="14"/>
     </row>
     <row r="818">
-      <c r="D818" s="15"/>
+      <c r="D818" s="14"/>
     </row>
     <row r="819">
-      <c r="D819" s="15"/>
+      <c r="D819" s="14"/>
     </row>
     <row r="820">
-      <c r="D820" s="15"/>
+      <c r="D820" s="14"/>
     </row>
     <row r="821">
-      <c r="D821" s="15"/>
+      <c r="D821" s="14"/>
     </row>
     <row r="822">
-      <c r="D822" s="15"/>
+      <c r="D822" s="14"/>
     </row>
     <row r="823">
-      <c r="D823" s="15"/>
+      <c r="D823" s="14"/>
     </row>
     <row r="824">
-      <c r="D824" s="15"/>
+      <c r="D824" s="14"/>
     </row>
     <row r="825">
-      <c r="D825" s="15"/>
+      <c r="D825" s="14"/>
     </row>
     <row r="826">
-      <c r="D826" s="15"/>
+      <c r="D826" s="14"/>
     </row>
     <row r="827">
-      <c r="D827" s="15"/>
+      <c r="D827" s="14"/>
     </row>
     <row r="828">
-      <c r="D828" s="15"/>
+      <c r="D828" s="14"/>
     </row>
     <row r="829">
-      <c r="D829" s="15"/>
+      <c r="D829" s="14"/>
     </row>
     <row r="830">
-      <c r="D830" s="15"/>
+      <c r="D830" s="14"/>
     </row>
     <row r="831">
-      <c r="D831" s="15"/>
+      <c r="D831" s="14"/>
     </row>
     <row r="832">
-      <c r="D832" s="15"/>
+      <c r="D832" s="14"/>
     </row>
     <row r="833">
-      <c r="D833" s="15"/>
+      <c r="D833" s="14"/>
     </row>
     <row r="834">
-      <c r="D834" s="15"/>
+      <c r="D834" s="14"/>
     </row>
     <row r="835">
-      <c r="D835" s="15"/>
+      <c r="D835" s="14"/>
     </row>
     <row r="836">
-      <c r="D836" s="15"/>
+      <c r="D836" s="14"/>
     </row>
     <row r="837">
-      <c r="D837" s="15"/>
+      <c r="D837" s="14"/>
     </row>
     <row r="838">
-      <c r="D838" s="15"/>
+      <c r="D838" s="14"/>
     </row>
     <row r="839">
-      <c r="D839" s="15"/>
+      <c r="D839" s="14"/>
     </row>
     <row r="840">
-      <c r="D840" s="15"/>
+      <c r="D840" s="14"/>
     </row>
     <row r="841">
-      <c r="D841" s="15"/>
+      <c r="D841" s="14"/>
     </row>
     <row r="842">
-      <c r="D842" s="15"/>
+      <c r="D842" s="14"/>
     </row>
     <row r="843">
-      <c r="D843" s="15"/>
+      <c r="D843" s="14"/>
     </row>
     <row r="844">
-      <c r="D844" s="15"/>
+      <c r="D844" s="14"/>
     </row>
     <row r="845">
-      <c r="D845" s="15"/>
+      <c r="D845" s="14"/>
     </row>
     <row r="846">
-      <c r="D846" s="15"/>
+      <c r="D846" s="14"/>
     </row>
     <row r="847">
-      <c r="D847" s="15"/>
+      <c r="D847" s="14"/>
     </row>
     <row r="848">
-      <c r="D848" s="15"/>
+      <c r="D848" s="14"/>
     </row>
     <row r="849">
-      <c r="D849" s="15"/>
+      <c r="D849" s="14"/>
     </row>
     <row r="850">
-      <c r="D850" s="15"/>
+      <c r="D850" s="14"/>
     </row>
     <row r="851">
-      <c r="D851" s="15"/>
+      <c r="D851" s="14"/>
     </row>
     <row r="852">
-      <c r="D852" s="15"/>
+      <c r="D852" s="14"/>
     </row>
     <row r="853">
-      <c r="D853" s="15"/>
+      <c r="D853" s="14"/>
     </row>
     <row r="854">
-      <c r="D854" s="15"/>
+      <c r="D854" s="14"/>
     </row>
     <row r="855">
-      <c r="D855" s="15"/>
+      <c r="D855" s="14"/>
     </row>
     <row r="856">
-      <c r="D856" s="15"/>
+      <c r="D856" s="14"/>
     </row>
     <row r="857">
-      <c r="D857" s="15"/>
+      <c r="D857" s="14"/>
     </row>
     <row r="858">
-      <c r="D858" s="15"/>
+      <c r="D858" s="14"/>
     </row>
     <row r="859">
-      <c r="D859" s="15"/>
+      <c r="D859" s="14"/>
     </row>
     <row r="860">
-      <c r="D860" s="15"/>
+      <c r="D860" s="14"/>
     </row>
     <row r="861">
-      <c r="D861" s="15"/>
+      <c r="D861" s="14"/>
     </row>
     <row r="862">
-      <c r="D862" s="15"/>
+      <c r="D862" s="14"/>
     </row>
     <row r="863">
-      <c r="D863" s="15"/>
+      <c r="D863" s="14"/>
     </row>
     <row r="864">
-      <c r="D864" s="15"/>
+      <c r="D864" s="14"/>
     </row>
     <row r="865">
-      <c r="D865" s="15"/>
+      <c r="D865" s="14"/>
     </row>
     <row r="866">
-      <c r="D866" s="15"/>
+      <c r="D866" s="14"/>
     </row>
     <row r="867">
-      <c r="D867" s="15"/>
+      <c r="D867" s="14"/>
     </row>
     <row r="868">
-      <c r="D868" s="15"/>
+      <c r="D868" s="14"/>
     </row>
     <row r="869">
-      <c r="D869" s="15"/>
+      <c r="D869" s="14"/>
     </row>
     <row r="870">
-      <c r="D870" s="15"/>
+      <c r="D870" s="14"/>
     </row>
     <row r="871">
-      <c r="D871" s="15"/>
+      <c r="D871" s="14"/>
     </row>
     <row r="872">
-      <c r="D872" s="15"/>
+      <c r="D872" s="14"/>
     </row>
     <row r="873">
-      <c r="D873" s="15"/>
+      <c r="D873" s="14"/>
     </row>
     <row r="874">
-      <c r="D874" s="15"/>
+      <c r="D874" s="14"/>
     </row>
     <row r="875">
-      <c r="D875" s="15"/>
+      <c r="D875" s="14"/>
     </row>
     <row r="876">
-      <c r="D876" s="15"/>
+      <c r="D876" s="14"/>
     </row>
     <row r="877">
-      <c r="D877" s="15"/>
+      <c r="D877" s="14"/>
     </row>
     <row r="878">
-      <c r="D878" s="15"/>
+      <c r="D878" s="14"/>
     </row>
     <row r="879">
-      <c r="D879" s="15"/>
+      <c r="D879" s="14"/>
     </row>
     <row r="880">
-      <c r="D880" s="15"/>
+      <c r="D880" s="14"/>
     </row>
     <row r="881">
-      <c r="D881" s="15"/>
+      <c r="D881" s="14"/>
     </row>
     <row r="882">
-      <c r="D882" s="15"/>
+      <c r="D882" s="14"/>
     </row>
     <row r="883">
-      <c r="D883" s="15"/>
+      <c r="D883" s="14"/>
     </row>
     <row r="884">
-      <c r="D884" s="15"/>
+      <c r="D884" s="14"/>
     </row>
     <row r="885">
-      <c r="D885" s="15"/>
+      <c r="D885" s="14"/>
     </row>
     <row r="886">
-      <c r="D886" s="15"/>
+      <c r="D886" s="14"/>
     </row>
     <row r="887">
-      <c r="D887" s="15"/>
+      <c r="D887" s="14"/>
     </row>
     <row r="888">
-      <c r="D888" s="15"/>
+      <c r="D888" s="14"/>
     </row>
     <row r="889">
-      <c r="D889" s="15"/>
+      <c r="D889" s="14"/>
     </row>
     <row r="890">
-      <c r="D890" s="15"/>
+      <c r="D890" s="14"/>
     </row>
     <row r="891">
-      <c r="D891" s="15"/>
+      <c r="D891" s="14"/>
     </row>
     <row r="892">
-      <c r="D892" s="15"/>
+      <c r="D892" s="14"/>
     </row>
     <row r="893">
-      <c r="D893" s="15"/>
+      <c r="D893" s="14"/>
     </row>
     <row r="894">
-      <c r="D894" s="15"/>
+      <c r="D894" s="14"/>
     </row>
     <row r="895">
-      <c r="D895" s="15"/>
+      <c r="D895" s="14"/>
     </row>
     <row r="896">
-      <c r="D896" s="15"/>
+      <c r="D896" s="14"/>
     </row>
     <row r="897">
-      <c r="D897" s="15"/>
+      <c r="D897" s="14"/>
     </row>
     <row r="898">
-      <c r="D898" s="15"/>
+      <c r="D898" s="14"/>
     </row>
     <row r="899">
-      <c r="D899" s="15"/>
+      <c r="D899" s="14"/>
     </row>
     <row r="900">
-      <c r="D900" s="15"/>
+      <c r="D900" s="14"/>
     </row>
     <row r="901">
-      <c r="D901" s="15"/>
+      <c r="D901" s="14"/>
     </row>
     <row r="902">
-      <c r="D902" s="15"/>
+      <c r="D902" s="14"/>
     </row>
     <row r="903">
-      <c r="D903" s="15"/>
+      <c r="D903" s="14"/>
     </row>
     <row r="904">
-      <c r="D904" s="15"/>
+      <c r="D904" s="14"/>
     </row>
     <row r="905">
-      <c r="D905" s="15"/>
+      <c r="D905" s="14"/>
     </row>
     <row r="906">
-      <c r="D906" s="15"/>
+      <c r="D906" s="14"/>
     </row>
     <row r="907">
-      <c r="D907" s="15"/>
+      <c r="D907" s="14"/>
     </row>
     <row r="908">
-      <c r="D908" s="15"/>
+      <c r="D908" s="14"/>
     </row>
     <row r="909">
-      <c r="D909" s="15"/>
+      <c r="D909" s="14"/>
     </row>
     <row r="910">
-      <c r="D910" s="15"/>
+      <c r="D910" s="14"/>
     </row>
     <row r="911">
-      <c r="D911" s="15"/>
+      <c r="D911" s="14"/>
     </row>
     <row r="912">
-      <c r="D912" s="15"/>
+      <c r="D912" s="14"/>
     </row>
     <row r="913">
-      <c r="D913" s="15"/>
+      <c r="D913" s="14"/>
     </row>
     <row r="914">
-      <c r="D914" s="15"/>
+      <c r="D914" s="14"/>
     </row>
     <row r="915">
-      <c r="D915" s="15"/>
+      <c r="D915" s="14"/>
     </row>
     <row r="916">
-      <c r="D916" s="15"/>
+      <c r="D916" s="14"/>
     </row>
     <row r="917">
-      <c r="D917" s="15"/>
+      <c r="D917" s="14"/>
     </row>
     <row r="918">
-      <c r="D918" s="15"/>
+      <c r="D918" s="14"/>
     </row>
     <row r="919">
-      <c r="D919" s="15"/>
+      <c r="D919" s="14"/>
     </row>
     <row r="920">
-      <c r="D920" s="15"/>
+      <c r="D920" s="14"/>
     </row>
     <row r="921">
-      <c r="D921" s="15"/>
+      <c r="D921" s="14"/>
     </row>
     <row r="922">
-      <c r="D922" s="15"/>
+      <c r="D922" s="14"/>
     </row>
     <row r="923">
-      <c r="D923" s="15"/>
+      <c r="D923" s="14"/>
     </row>
     <row r="924">
-      <c r="D924" s="15"/>
+      <c r="D924" s="14"/>
     </row>
     <row r="925">
-      <c r="D925" s="15"/>
+      <c r="D925" s="14"/>
     </row>
     <row r="926">
-      <c r="D926" s="15"/>
+      <c r="D926" s="14"/>
     </row>
     <row r="927">
-      <c r="D927" s="15"/>
+      <c r="D927" s="14"/>
     </row>
     <row r="928">
-      <c r="D928" s="15"/>
+      <c r="D928" s="14"/>
     </row>
     <row r="929">
-      <c r="D929" s="15"/>
+      <c r="D929" s="14"/>
     </row>
     <row r="930">
-      <c r="D930" s="15"/>
+      <c r="D930" s="14"/>
     </row>
     <row r="931">
-      <c r="D931" s="15"/>
+      <c r="D931" s="14"/>
     </row>
     <row r="932">
-      <c r="D932" s="15"/>
+      <c r="D932" s="14"/>
     </row>
     <row r="933">
-      <c r="D933" s="15"/>
+      <c r="D933" s="14"/>
     </row>
     <row r="934">
-      <c r="D934" s="15"/>
+      <c r="D934" s="14"/>
     </row>
     <row r="935">
-      <c r="D935" s="15"/>
+      <c r="D935" s="14"/>
     </row>
     <row r="936">
-      <c r="D936" s="15"/>
+      <c r="D936" s="14"/>
     </row>
     <row r="937">
-      <c r="D937" s="15"/>
+      <c r="D937" s="14"/>
     </row>
     <row r="938">
-      <c r="D938" s="15"/>
+      <c r="D938" s="14"/>
     </row>
     <row r="939">
-      <c r="D939" s="15"/>
+      <c r="D939" s="14"/>
     </row>
     <row r="940">
-      <c r="D940" s="15"/>
+      <c r="D940" s="14"/>
     </row>
     <row r="941">
-      <c r="D941" s="15"/>
+      <c r="D941" s="14"/>
     </row>
     <row r="942">
-      <c r="D942" s="15"/>
+      <c r="D942" s="14"/>
     </row>
     <row r="943">
-      <c r="D943" s="15"/>
+      <c r="D943" s="14"/>
     </row>
     <row r="944">
-      <c r="D944" s="15"/>
+      <c r="D944" s="14"/>
     </row>
     <row r="945">
-      <c r="D945" s="15"/>
+      <c r="D945" s="14"/>
     </row>
     <row r="946">
-      <c r="D946" s="15"/>
+      <c r="D946" s="14"/>
     </row>
     <row r="947">
-      <c r="D947" s="15"/>
+      <c r="D947" s="14"/>
     </row>
     <row r="948">
-      <c r="D948" s="15"/>
+      <c r="D948" s="14"/>
     </row>
     <row r="949">
-      <c r="D949" s="15"/>
+      <c r="D949" s="14"/>
     </row>
     <row r="950">
-      <c r="D950" s="15"/>
+      <c r="D950" s="14"/>
     </row>
     <row r="951">
-      <c r="D951" s="15"/>
+      <c r="D951" s="14"/>
     </row>
     <row r="952">
-      <c r="D952" s="15"/>
+      <c r="D952" s="14"/>
     </row>
     <row r="953">
-      <c r="D953" s="15"/>
+      <c r="D953" s="14"/>
     </row>
     <row r="954">
-      <c r="D954" s="15"/>
+      <c r="D954" s="14"/>
     </row>
     <row r="955">
-      <c r="D955" s="15"/>
+      <c r="D955" s="14"/>
     </row>
     <row r="956">
-      <c r="D956" s="15"/>
+      <c r="D956" s="14"/>
     </row>
     <row r="957">
-      <c r="D957" s="15"/>
+      <c r="D957" s="14"/>
     </row>
     <row r="958">
-      <c r="D958" s="15"/>
+      <c r="D958" s="14"/>
     </row>
     <row r="959">
-      <c r="D959" s="15"/>
+      <c r="D959" s="14"/>
     </row>
     <row r="960">
-      <c r="D960" s="15"/>
+      <c r="D960" s="14"/>
     </row>
     <row r="961">
-      <c r="D961" s="15"/>
+      <c r="D961" s="14"/>
     </row>
     <row r="962">
-      <c r="D962" s="15"/>
+      <c r="D962" s="14"/>
     </row>
     <row r="963">
-      <c r="D963" s="15"/>
+      <c r="D963" s="14"/>
     </row>
     <row r="964">
-      <c r="D964" s="15"/>
+      <c r="D964" s="14"/>
     </row>
     <row r="965">
-      <c r="D965" s="15"/>
+      <c r="D965" s="14"/>
     </row>
     <row r="966">
-      <c r="D966" s="15"/>
+      <c r="D966" s="14"/>
     </row>
     <row r="967">
-      <c r="D967" s="15"/>
+      <c r="D967" s="14"/>
     </row>
     <row r="968">
-      <c r="D968" s="15"/>
+      <c r="D968" s="14"/>
     </row>
     <row r="969">
-      <c r="D969" s="15"/>
+      <c r="D969" s="14"/>
     </row>
     <row r="970">
-      <c r="D970" s="15"/>
+      <c r="D970" s="14"/>
     </row>
     <row r="971">
-      <c r="D971" s="15"/>
+      <c r="D971" s="14"/>
     </row>
     <row r="972">
-      <c r="D972" s="15"/>
+      <c r="D972" s="14"/>
     </row>
     <row r="973">
-      <c r="D973" s="15"/>
+      <c r="D973" s="14"/>
     </row>
     <row r="974">
-      <c r="D974" s="15"/>
+      <c r="D974" s="14"/>
     </row>
     <row r="975">
-      <c r="D975" s="15"/>
+      <c r="D975" s="14"/>
     </row>
     <row r="976">
-      <c r="D976" s="15"/>
+      <c r="D976" s="14"/>
     </row>
     <row r="977">
-      <c r="D977" s="15"/>
+      <c r="D977" s="14"/>
     </row>
     <row r="978">
-      <c r="D978" s="15"/>
+      <c r="D978" s="14"/>
     </row>
     <row r="979">
-      <c r="D979" s="15"/>
+      <c r="D979" s="14"/>
     </row>
     <row r="980">
-      <c r="D980" s="15"/>
+      <c r="D980" s="14"/>
     </row>
     <row r="981">
-      <c r="D981" s="15"/>
+      <c r="D981" s="14"/>
     </row>
     <row r="982">
-      <c r="D982" s="15"/>
+      <c r="D982" s="14"/>
     </row>
     <row r="983">
-      <c r="D983" s="15"/>
+      <c r="D983" s="14"/>
     </row>
     <row r="984">
-      <c r="D984" s="15"/>
+      <c r="D984" s="14"/>
     </row>
     <row r="985">
-      <c r="D985" s="15"/>
+      <c r="D985" s="14"/>
     </row>
     <row r="986">
-      <c r="D986" s="15"/>
+      <c r="D986" s="14"/>
     </row>
     <row r="987">
-      <c r="D987" s="15"/>
+      <c r="D987" s="14"/>
     </row>
     <row r="988">
-      <c r="D988" s="15"/>
+      <c r="D988" s="14"/>
     </row>
     <row r="989">
-      <c r="D989" s="15"/>
+      <c r="D989" s="14"/>
     </row>
     <row r="990">
-      <c r="D990" s="15"/>
+      <c r="D990" s="14"/>
     </row>
     <row r="991">
-      <c r="D991" s="15"/>
+      <c r="D991" s="14"/>
     </row>
     <row r="992">
-      <c r="D992" s="15"/>
+      <c r="D992" s="14"/>
     </row>
     <row r="993">
-      <c r="D993" s="15"/>
+      <c r="D993" s="14"/>
     </row>
     <row r="994">
-      <c r="D994" s="15"/>
+      <c r="D994" s="14"/>
     </row>
     <row r="995">
-      <c r="D995" s="15"/>
+      <c r="D995" s="14"/>
     </row>
     <row r="996">
-      <c r="D996" s="15"/>
+      <c r="D996" s="14"/>
     </row>
     <row r="997">
-      <c r="D997" s="15"/>
+      <c r="D997" s="14"/>
     </row>
     <row r="998">
-      <c r="D998" s="15"/>
+      <c r="D998" s="14"/>
     </row>
     <row r="999">
-      <c r="D999" s="15"/>
+      <c r="D999" s="14"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="15"/>
+      <c r="D1000" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C22">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C26">
       <formula1>"ESSENCIAL,IMPORTANTE,DESEJÁVEL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C23:C26">
-      <formula1>"ESSENCIAL,IMPORTANTE,DESEJAVEL"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="59.13"/>
-    <col customWidth="1" min="2" max="2" width="17.75"/>
-    <col customWidth="1" min="3" max="4" width="26.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="C10" s="19">
-        <f>(4000*21.8)</f>
-        <v>87200</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="19">
-        <v>87200.0</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>